--- a/Italian Firms 2020/movimprese_province_en.xlsx
+++ b/Italian Firms 2020/movimprese_province_en.xlsx
@@ -1236,37 +1236,37 @@
         <v>306</v>
       </c>
       <c r="AK2" t="n">
-        <v>88.47</v>
+        <v>88.466</v>
       </c>
       <c r="AL2" t="n">
-        <v>467266.67</v>
+        <v>-0.01</v>
       </c>
       <c r="AM2" t="n">
-        <v>197800.0</v>
+        <v>0.02</v>
       </c>
       <c r="AN2" t="n">
-        <v>242700.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO2" t="n">
-        <v>937900.0</v>
-      </c>
-      <c r="AP2" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.01</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3945.0</v>
+        <v>-0.2</v>
       </c>
       <c r="AR2" t="n">
-        <v>3650.0</v>
+        <v>-0.07</v>
       </c>
       <c r="AS2" t="n">
-        <v>1542.86</v>
+        <v>-0.23</v>
       </c>
       <c r="AT2" t="n">
-        <v>5436.36</v>
-      </c>
-      <c r="AU2" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.21</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="3">
@@ -1379,37 +1379,37 @@
         <v>306</v>
       </c>
       <c r="AK3" t="n">
-        <v>89.37</v>
+        <v>89.372</v>
       </c>
       <c r="AL3" t="n">
-        <v>653300.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AM3" t="n">
-        <v>189633.33</v>
-      </c>
-      <c r="AN3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO3" t="e">
-        <v>#DIV/0!</v>
+        <v>0.03</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AP3" t="n">
-        <v>54900.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1632.08</v>
+        <v>-0.28</v>
       </c>
       <c r="AR3" t="n">
-        <v>645.65</v>
+        <v>-0.34</v>
       </c>
       <c r="AS3" t="n">
-        <v>851.85</v>
+        <v>-0.37</v>
       </c>
       <c r="AT3" t="n">
-        <v>3903.33</v>
+        <v>-0.24</v>
       </c>
       <c r="AU3" t="n">
-        <v>1066.67</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -1522,37 +1522,37 @@
         <v>306</v>
       </c>
       <c r="AK4" t="n">
-        <v>87.67</v>
+        <v>87.667</v>
       </c>
       <c r="AL4" t="n">
-        <v>256705.33</v>
+        <v>0.0</v>
       </c>
       <c r="AM4" t="n">
-        <v>92571.79</v>
+        <v>0.03</v>
       </c>
       <c r="AN4" t="n">
-        <v>198700.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO4" t="n">
-        <v>1030845.45</v>
+        <v>0.0</v>
       </c>
       <c r="AP4" t="n">
-        <v>65860.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2165.26</v>
+        <v>-0.27</v>
       </c>
       <c r="AR4" t="n">
-        <v>894.19</v>
+        <v>-0.06</v>
       </c>
       <c r="AS4" t="n">
-        <v>880.79</v>
+        <v>-0.19</v>
       </c>
       <c r="AT4" t="n">
-        <v>5789.05</v>
+        <v>-0.31</v>
       </c>
       <c r="AU4" t="n">
-        <v>676.92</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="5">
@@ -1665,37 +1665,37 @@
         <v>306</v>
       </c>
       <c r="AK5" t="n">
-        <v>87.75</v>
+        <v>87.753</v>
       </c>
       <c r="AL5" t="n">
-        <v>458575.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AM5" t="n">
-        <v>212100.0</v>
+        <v>0.02</v>
       </c>
       <c r="AN5" t="n">
-        <v>616800.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO5" t="n">
-        <v>588700.0</v>
-      </c>
-      <c r="AP5" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.02</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.02</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2544.58</v>
+        <v>-0.23</v>
       </c>
       <c r="AR5" t="n">
-        <v>630.3</v>
+        <v>-0.23</v>
       </c>
       <c r="AS5" t="n">
-        <v>1535.29</v>
+        <v>-0.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>5225.81</v>
+        <v>-0.2</v>
       </c>
       <c r="AU5" t="n">
-        <v>1150.0</v>
+        <v>-0.56</v>
       </c>
     </row>
     <row r="6">
@@ -1808,37 +1808,37 @@
         <v>306</v>
       </c>
       <c r="AK6" t="n">
-        <v>88.91</v>
+        <v>88.913</v>
       </c>
       <c r="AL6" t="n">
-        <v>361833.33</v>
+        <v>-0.01</v>
       </c>
       <c r="AM6" t="n">
-        <v>172800.0</v>
+        <v>0.04</v>
       </c>
       <c r="AN6" t="n">
-        <v>236500.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO6" t="n">
-        <v>645000.0</v>
-      </c>
-      <c r="AP6" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.02</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.01</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1103.39</v>
+        <v>-0.06</v>
       </c>
       <c r="AR6" t="n">
-        <v>581.82</v>
+        <v>0.09</v>
       </c>
       <c r="AS6" t="n">
-        <v>190.91</v>
+        <v>-0.34</v>
       </c>
       <c r="AT6" t="n">
-        <v>3907.69</v>
+        <v>-0.0</v>
       </c>
       <c r="AU6" t="n">
-        <v>800.0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -1951,37 +1951,37 @@
         <v>306</v>
       </c>
       <c r="AK7" t="n">
-        <v>85.4</v>
+        <v>85.405</v>
       </c>
       <c r="AL7" t="n">
-        <v>2193100.0</v>
-      </c>
-      <c r="AM7" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.05</v>
       </c>
       <c r="AN7" t="n">
-        <v>373500.0</v>
-      </c>
-      <c r="AO7" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP7" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.02</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1679.75</v>
+        <v>-0.09</v>
       </c>
       <c r="AR7" t="n">
-        <v>350.0</v>
+        <v>-0.39</v>
       </c>
       <c r="AS7" t="n">
-        <v>1012.5</v>
+        <v>-0.22</v>
       </c>
       <c r="AT7" t="n">
-        <v>3463.33</v>
+        <v>-0.02</v>
       </c>
       <c r="AU7" t="n">
-        <v>560.0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8">
@@ -2094,37 +2094,37 @@
         <v>306</v>
       </c>
       <c r="AK8" t="n">
-        <v>93.66</v>
+        <v>93.659</v>
       </c>
       <c r="AL8" t="n">
-        <v>478446.15</v>
+        <v>-0.01</v>
       </c>
       <c r="AM8" t="n">
-        <v>230766.67</v>
+        <v>0.03</v>
       </c>
       <c r="AN8" t="n">
-        <v>662450.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AO8" t="n">
-        <v>679150.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AP8" t="n">
-        <v>63850.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3487.04</v>
+        <v>-0.1</v>
       </c>
       <c r="AR8" t="n">
-        <v>1221.74</v>
+        <v>-0.3</v>
       </c>
       <c r="AS8" t="n">
-        <v>2044.0</v>
+        <v>-0.07</v>
       </c>
       <c r="AT8" t="n">
-        <v>5607.69</v>
+        <v>-0.08</v>
       </c>
       <c r="AU8" t="n">
-        <v>725.0</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="9">
@@ -2237,37 +2237,37 @@
         <v>306</v>
       </c>
       <c r="AK9" t="n">
-        <v>90.86</v>
+        <v>90.863</v>
       </c>
       <c r="AL9" t="n">
-        <v>1053050.0</v>
-      </c>
-      <c r="AM9" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.06</v>
       </c>
       <c r="AN9" t="n">
-        <v>351600.0</v>
-      </c>
-      <c r="AO9" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.03</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AP9" t="n">
-        <v>37300.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2661.9</v>
+        <v>-0.18</v>
       </c>
       <c r="AR9" t="n">
-        <v>866.67</v>
+        <v>-0.22</v>
       </c>
       <c r="AS9" t="n">
-        <v>1862.5</v>
+        <v>-0.12</v>
       </c>
       <c r="AT9" t="n">
-        <v>3765.22</v>
+        <v>-0.2</v>
       </c>
       <c r="AU9" t="n">
-        <v>1250.0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="10">
@@ -2380,37 +2380,37 @@
         <v>306</v>
       </c>
       <c r="AK10" t="n">
-        <v>88.66</v>
+        <v>88.656</v>
       </c>
       <c r="AL10" t="n">
-        <v>212050.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AM10" t="n">
-        <v>159885.71</v>
+        <v>0.02</v>
       </c>
       <c r="AN10" t="n">
-        <v>416900.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO10" t="n">
-        <v>732966.67</v>
+        <v>-0.0</v>
       </c>
       <c r="AP10" t="n">
-        <v>11137.5</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2588.76</v>
+        <v>-0.13</v>
       </c>
       <c r="AR10" t="n">
-        <v>1052.38</v>
+        <v>-0.02</v>
       </c>
       <c r="AS10" t="n">
-        <v>2591.67</v>
+        <v>-0.23</v>
       </c>
       <c r="AT10" t="n">
-        <v>4756.25</v>
+        <v>-0.15</v>
       </c>
       <c r="AU10" t="n">
-        <v>966.67</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="11">
@@ -2523,37 +2523,37 @@
         <v>306</v>
       </c>
       <c r="AK11" t="n">
-        <v>93.86</v>
+        <v>93.857</v>
       </c>
       <c r="AL11" t="n">
-        <v>452133.33</v>
+        <v>-0.01</v>
       </c>
       <c r="AM11" t="n">
-        <v>126500.0</v>
-      </c>
-      <c r="AN11" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO11" t="e">
-        <v>#DIV/0!</v>
+        <v>0.04</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AP11" t="n">
-        <v>32600.0</v>
+        <v>0.02</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2171.79</v>
+        <v>0.11</v>
       </c>
       <c r="AR11" t="n">
-        <v>842.86</v>
+        <v>-0.43</v>
       </c>
       <c r="AS11" t="n">
-        <v>1363.16</v>
+        <v>1.36</v>
       </c>
       <c r="AT11" t="n">
-        <v>4754.55</v>
+        <v>-0.02</v>
       </c>
       <c r="AU11" t="n">
-        <v>300.0</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="12">
@@ -2666,37 +2666,37 @@
         <v>306</v>
       </c>
       <c r="AK12" t="n">
-        <v>88.38</v>
+        <v>88.377</v>
       </c>
       <c r="AL12" t="n">
-        <v>371185.71</v>
+        <v>-0.0</v>
       </c>
       <c r="AM12" t="n">
-        <v>163250.0</v>
+        <v>0.03</v>
       </c>
       <c r="AN12" t="n">
-        <v>265150.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO12" t="n">
-        <v>564300.0</v>
-      </c>
-      <c r="AP12" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1863.53</v>
+        <v>-0.24</v>
       </c>
       <c r="AR12" t="n">
-        <v>511.76</v>
+        <v>-0.27</v>
       </c>
       <c r="AS12" t="n">
-        <v>657.5</v>
+        <v>-0.1</v>
       </c>
       <c r="AT12" t="n">
-        <v>11220.0</v>
+        <v>-0.27</v>
       </c>
       <c r="AU12" t="n">
-        <v>2500.0</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="13">
@@ -2809,37 +2809,37 @@
         <v>306</v>
       </c>
       <c r="AK13" t="n">
-        <v>81.95</v>
+        <v>81.948</v>
       </c>
       <c r="AL13" t="n">
-        <v>368763.16</v>
+        <v>-0.0</v>
       </c>
       <c r="AM13" t="n">
-        <v>289940.0</v>
+        <v>0.03</v>
       </c>
       <c r="AN13" t="n">
-        <v>444166.67</v>
+        <v>-0.03</v>
       </c>
       <c r="AO13" t="n">
-        <v>407820.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AP13" t="n">
-        <v>146100.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2168.31</v>
+        <v>-0.16</v>
       </c>
       <c r="AR13" t="n">
-        <v>719.74</v>
+        <v>0.19</v>
       </c>
       <c r="AS13" t="n">
-        <v>1715.0</v>
+        <v>0.13</v>
       </c>
       <c r="AT13" t="n">
-        <v>4911.11</v>
+        <v>-0.27</v>
       </c>
       <c r="AU13" t="n">
-        <v>638.46</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="14">
@@ -2952,37 +2952,37 @@
         <v>306</v>
       </c>
       <c r="AK14" t="n">
-        <v>83.75</v>
+        <v>83.754</v>
       </c>
       <c r="AL14" t="n">
-        <v>347280.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AM14" t="n">
-        <v>414100.0</v>
-      </c>
-      <c r="AN14" t="e">
-        <v>#DIV/0!</v>
+        <v>0.04</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>-0.03</v>
       </c>
       <c r="AO14" t="n">
-        <v>331800.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP14" t="n">
-        <v>47200.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1401.25</v>
+        <v>-0.13</v>
       </c>
       <c r="AR14" t="n">
-        <v>477.78</v>
+        <v>-0.21</v>
       </c>
       <c r="AS14" t="n">
-        <v>1064.29</v>
+        <v>0.01</v>
       </c>
       <c r="AT14" t="n">
-        <v>4370.59</v>
+        <v>-0.1</v>
       </c>
       <c r="AU14" t="n">
-        <v>350.0</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="15">
@@ -3098,34 +3098,34 @@
         <v>86.68</v>
       </c>
       <c r="AL15" t="n">
-        <v>157359.46</v>
+        <v>0.0</v>
       </c>
       <c r="AM15" t="n">
-        <v>275066.67</v>
+        <v>0.03</v>
       </c>
       <c r="AN15" t="n">
-        <v>227480.0</v>
-      </c>
-      <c r="AO15" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.02</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.0</v>
       </c>
       <c r="AP15" t="n">
-        <v>4726.92</v>
+        <v>-0.0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2292.48</v>
+        <v>-0.53</v>
       </c>
       <c r="AR15" t="n">
-        <v>994.34</v>
+        <v>-0.24</v>
       </c>
       <c r="AS15" t="n">
-        <v>2382.35</v>
+        <v>-0.19</v>
       </c>
       <c r="AT15" t="n">
-        <v>3545.76</v>
+        <v>-0.6</v>
       </c>
       <c r="AU15" t="n">
-        <v>625.0</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="16">
@@ -3238,37 +3238,37 @@
         <v>306</v>
       </c>
       <c r="AK16" t="n">
-        <v>89.18</v>
+        <v>89.179</v>
       </c>
       <c r="AL16" t="n">
-        <v>455065.22</v>
+        <v>-0.0</v>
       </c>
       <c r="AM16" t="n">
-        <v>292290.0</v>
+        <v>0.03</v>
       </c>
       <c r="AN16" t="n">
-        <v>598700.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO16" t="n">
-        <v>1376675.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP16" t="n">
-        <v>40133.33</v>
+        <v>-0.01</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2394.63</v>
+        <v>-0.24</v>
       </c>
       <c r="AR16" t="n">
-        <v>1195.56</v>
+        <v>-0.3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1197.1</v>
+        <v>-0.12</v>
       </c>
       <c r="AT16" t="n">
-        <v>5044.0</v>
+        <v>-0.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>1375.0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="17">
@@ -3381,37 +3381,37 @@
         <v>306</v>
       </c>
       <c r="AK17" t="n">
-        <v>88.63</v>
+        <v>88.634</v>
       </c>
       <c r="AL17" t="n">
-        <v>293335.71</v>
+        <v>-0.0</v>
       </c>
       <c r="AM17" t="n">
-        <v>764300.0</v>
-      </c>
-      <c r="AN17" t="e">
-        <v>#DIV/0!</v>
+        <v>0.03</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>-0.03</v>
       </c>
       <c r="AO17" t="n">
-        <v>2660600.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP17" t="n">
-        <v>6725.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AQ17" t="n">
-        <v>2642.7</v>
+        <v>-0.2</v>
       </c>
       <c r="AR17" t="n">
-        <v>935.29</v>
+        <v>-0.23</v>
       </c>
       <c r="AS17" t="n">
-        <v>1447.37</v>
+        <v>-0.14</v>
       </c>
       <c r="AT17" t="n">
-        <v>5365.62</v>
+        <v>-0.21</v>
       </c>
       <c r="AU17" t="n">
-        <v>1050.0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="18">
@@ -3524,37 +3524,37 @@
         <v>306</v>
       </c>
       <c r="AK18" t="n">
-        <v>80.8</v>
+        <v>80.803</v>
       </c>
       <c r="AL18" t="n">
-        <v>101360.13</v>
+        <v>-0.0</v>
       </c>
       <c r="AM18" t="n">
-        <v>159820.73</v>
+        <v>0.0</v>
       </c>
       <c r="AN18" t="n">
-        <v>342516.67</v>
+        <v>-0.03</v>
       </c>
       <c r="AO18" t="n">
-        <v>731570.59</v>
+        <v>0.0</v>
       </c>
       <c r="AP18" t="n">
-        <v>4511.58</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ18" t="n">
-        <v>872.67</v>
+        <v>-0.11</v>
       </c>
       <c r="AR18" t="n">
-        <v>512.88</v>
+        <v>-0.07</v>
       </c>
       <c r="AS18" t="n">
-        <v>1295.45</v>
+        <v>-0.05</v>
       </c>
       <c r="AT18" t="n">
-        <v>3563.87</v>
+        <v>-0.19</v>
       </c>
       <c r="AU18" t="n">
-        <v>1184.62</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="19">
@@ -3667,37 +3667,37 @@
         <v>306</v>
       </c>
       <c r="AK19" t="n">
-        <v>89.13</v>
+        <v>89.132</v>
       </c>
       <c r="AL19" t="n">
-        <v>182054.35</v>
+        <v>-0.0</v>
       </c>
       <c r="AM19" t="n">
-        <v>348642.86</v>
+        <v>0.02</v>
       </c>
       <c r="AN19" t="n">
-        <v>325300.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO19" t="n">
-        <v>1113925.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP19" t="n">
-        <v>5712.9</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2149.08</v>
+        <v>-0.19</v>
       </c>
       <c r="AR19" t="n">
-        <v>845.08</v>
+        <v>-0.22</v>
       </c>
       <c r="AS19" t="n">
-        <v>2491.3</v>
+        <v>-0.23</v>
       </c>
       <c r="AT19" t="n">
-        <v>4914.75</v>
+        <v>-0.17</v>
       </c>
       <c r="AU19" t="n">
-        <v>691.67</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="20">
@@ -3810,37 +3810,37 @@
         <v>306</v>
       </c>
       <c r="AK20" t="n">
-        <v>93.94</v>
+        <v>93.944</v>
       </c>
       <c r="AL20" t="n">
-        <v>509400.0</v>
+        <v>0.01</v>
       </c>
       <c r="AM20" t="n">
-        <v>194600.0</v>
-      </c>
-      <c r="AN20" t="e">
-        <v>#DIV/0!</v>
+        <v>0.05</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AO20" t="n">
-        <v>1195500.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP20" t="n">
-        <v>45533.33</v>
+        <v>-0.0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2460.38</v>
+        <v>-0.1</v>
       </c>
       <c r="AR20" t="n">
-        <v>792.86</v>
+        <v>-0.09</v>
       </c>
       <c r="AS20" t="n">
-        <v>972.41</v>
+        <v>-0.29</v>
       </c>
       <c r="AT20" t="n">
-        <v>6807.14</v>
+        <v>-0.06</v>
       </c>
       <c r="AU20" t="n">
-        <v>1242.86</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="21">
@@ -3953,37 +3953,37 @@
         <v>306</v>
       </c>
       <c r="AK21" t="n">
-        <v>89.29</v>
+        <v>89.293</v>
       </c>
       <c r="AL21" t="n">
-        <v>151588.24</v>
+        <v>-0.01</v>
       </c>
       <c r="AM21" t="n">
-        <v>478100.0</v>
-      </c>
-      <c r="AN21" t="e">
-        <v>#DIV/0!</v>
+        <v>0.02</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AO21" t="n">
-        <v>754450.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP21" t="n">
-        <v>4328.57</v>
+        <v>-0.0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2666.67</v>
+        <v>-0.17</v>
       </c>
       <c r="AR21" t="n">
-        <v>910.53</v>
+        <v>-0.37</v>
       </c>
       <c r="AS21" t="n">
-        <v>2250.0</v>
+        <v>0.12</v>
       </c>
       <c r="AT21" t="n">
-        <v>4229.17</v>
+        <v>-0.18</v>
       </c>
       <c r="AU21" t="n">
-        <v>2700.0</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="22">
@@ -4096,37 +4096,37 @@
         <v>306</v>
       </c>
       <c r="AK22" t="n">
-        <v>89.77</v>
+        <v>89.766</v>
       </c>
       <c r="AL22" t="n">
-        <v>248621.43</v>
+        <v>-0.02</v>
       </c>
       <c r="AM22" t="n">
-        <v>645200.0</v>
-      </c>
-      <c r="AN22" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO22" t="e">
-        <v>#DIV/0!</v>
+        <v>0.03</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>-0.03</v>
       </c>
       <c r="AP22" t="n">
-        <v>4807.69</v>
+        <v>-0.03</v>
       </c>
       <c r="AQ22" t="n">
-        <v>3409.86</v>
+        <v>-0.04</v>
       </c>
       <c r="AR22" t="n">
-        <v>912.9</v>
+        <v>0.08</v>
       </c>
       <c r="AS22" t="n">
-        <v>3983.33</v>
+        <v>-0.15</v>
       </c>
       <c r="AT22" t="n">
-        <v>5642.42</v>
+        <v>-0.04</v>
       </c>
       <c r="AU22" t="n">
-        <v>3700.0</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="23">
@@ -4239,37 +4239,37 @@
         <v>306</v>
       </c>
       <c r="AK23" t="n">
-        <v>90.87</v>
+        <v>90.866</v>
       </c>
       <c r="AL23" t="n">
-        <v>343600.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AM23" t="n">
-        <v>215600.0</v>
+        <v>0.02</v>
       </c>
       <c r="AN23" t="n">
-        <v>290800.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO23" t="n">
-        <v>831700.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AP23" t="n">
-        <v>36300.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ23" t="n">
-        <v>3820.0</v>
+        <v>-0.1</v>
       </c>
       <c r="AR23" t="n">
-        <v>622.22</v>
+        <v>-0.21</v>
       </c>
       <c r="AS23" t="n">
-        <v>6500.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AT23" t="n">
-        <v>6322.22</v>
-      </c>
-      <c r="AU23" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.1</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24">
@@ -4382,37 +4382,37 @@
         <v>306</v>
       </c>
       <c r="AK24" t="n">
-        <v>90.15</v>
+        <v>90.152</v>
       </c>
       <c r="AL24" t="n">
-        <v>1576180.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AM24" t="n">
-        <v>618566.67</v>
-      </c>
-      <c r="AN24" t="e">
-        <v>#DIV/0!</v>
+        <v>0.02</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AO24" t="n">
-        <v>2196700.0</v>
-      </c>
-      <c r="AP24" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.01</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>-0.0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3263.31</v>
+        <v>-0.09</v>
       </c>
       <c r="AR24" t="n">
-        <v>1568.97</v>
+        <v>-0.03</v>
       </c>
       <c r="AS24" t="n">
-        <v>2914.29</v>
+        <v>-0.17</v>
       </c>
       <c r="AT24" t="n">
-        <v>5410.91</v>
+        <v>-0.09</v>
       </c>
       <c r="AU24" t="n">
-        <v>760.0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="25">
@@ -4525,37 +4525,37 @@
         <v>306</v>
       </c>
       <c r="AK25" t="n">
-        <v>87.24</v>
+        <v>87.239</v>
       </c>
       <c r="AL25" t="n">
-        <v>353857.89</v>
+        <v>-0.0</v>
       </c>
       <c r="AM25" t="n">
-        <v>254050.0</v>
+        <v>0.03</v>
       </c>
       <c r="AN25" t="n">
-        <v>175275.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO25" t="n">
-        <v>1838800.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP25" t="n">
-        <v>39733.33</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ25" t="n">
-        <v>2031.72</v>
+        <v>-0.09</v>
       </c>
       <c r="AR25" t="n">
-        <v>707.78</v>
+        <v>0.13</v>
       </c>
       <c r="AS25" t="n">
-        <v>1896.15</v>
+        <v>-0.3</v>
       </c>
       <c r="AT25" t="n">
-        <v>3800.0</v>
+        <v>-0.08</v>
       </c>
       <c r="AU25" t="n">
-        <v>3250.0</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="26">
@@ -4668,37 +4668,37 @@
         <v>306</v>
       </c>
       <c r="AK26" t="n">
-        <v>91.13</v>
+        <v>91.128</v>
       </c>
       <c r="AL26" t="n">
-        <v>1154175.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AM26" t="n">
-        <v>298033.33</v>
-      </c>
-      <c r="AN26" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO26" t="e">
-        <v>#DIV/0!</v>
+        <v>0.04</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AP26" t="n">
-        <v>106600.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2786.21</v>
+        <v>-0.11</v>
       </c>
       <c r="AR26" t="n">
-        <v>1134.29</v>
+        <v>-0.14</v>
       </c>
       <c r="AS26" t="n">
-        <v>3530.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AT26" t="n">
-        <v>4062.5</v>
+        <v>-0.12</v>
       </c>
       <c r="AU26" t="n">
-        <v>2450.0</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="27">
@@ -4814,34 +4814,34 @@
         <v>89.14</v>
       </c>
       <c r="AL27" t="n">
-        <v>659707.69</v>
+        <v>0.0</v>
       </c>
       <c r="AM27" t="n">
-        <v>400700.0</v>
+        <v>0.04</v>
       </c>
       <c r="AN27" t="n">
-        <v>500500.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AO27" t="n">
-        <v>1221500.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP27" t="n">
-        <v>185200.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2308.54</v>
+        <v>-0.19</v>
       </c>
       <c r="AR27" t="n">
-        <v>904.76</v>
+        <v>-0.08</v>
       </c>
       <c r="AS27" t="n">
-        <v>1855.17</v>
+        <v>-0.36</v>
       </c>
       <c r="AT27" t="n">
-        <v>4906.15</v>
+        <v>-0.19</v>
       </c>
       <c r="AU27" t="n">
-        <v>509.52</v>
+        <v>-0.07</v>
       </c>
     </row>
     <row r="28">
@@ -4954,37 +4954,37 @@
         <v>306</v>
       </c>
       <c r="AK28" t="n">
-        <v>88.59</v>
+        <v>88.592</v>
       </c>
       <c r="AL28" t="n">
-        <v>48541.22</v>
+        <v>-0.01</v>
       </c>
       <c r="AM28" t="n">
-        <v>19298.08</v>
+        <v>0.02</v>
       </c>
       <c r="AN28" t="n">
-        <v>37380.56</v>
+        <v>-0.02</v>
       </c>
       <c r="AO28" t="n">
-        <v>1245600.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AP28" t="n">
-        <v>18920.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1761.75</v>
+        <v>0.21</v>
       </c>
       <c r="AR28" t="n">
-        <v>630.37</v>
+        <v>0.82</v>
       </c>
       <c r="AS28" t="n">
-        <v>1867.74</v>
+        <v>0.07</v>
       </c>
       <c r="AT28" t="n">
-        <v>7680.49</v>
+        <v>0.06</v>
       </c>
       <c r="AU28" t="n">
-        <v>404.55</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="29">
@@ -5097,37 +5097,37 @@
         <v>306</v>
       </c>
       <c r="AK29" t="n">
-        <v>86.58</v>
+        <v>86.582</v>
       </c>
       <c r="AL29" t="n">
-        <v>354850.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AM29" t="n">
-        <v>142366.67</v>
+        <v>0.02</v>
       </c>
       <c r="AN29" t="n">
-        <v>193250.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO29" t="n">
-        <v>1276600.0</v>
-      </c>
-      <c r="AP29" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.02</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2843.04</v>
+        <v>-0.15</v>
       </c>
       <c r="AR29" t="n">
-        <v>967.65</v>
+        <v>-0.03</v>
       </c>
       <c r="AS29" t="n">
-        <v>3266.67</v>
+        <v>-0.07</v>
       </c>
       <c r="AT29" t="n">
-        <v>4809.09</v>
+        <v>-0.18</v>
       </c>
       <c r="AU29" t="n">
-        <v>1200.0</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="30">
@@ -5243,34 +5243,34 @@
         <v>86.28</v>
       </c>
       <c r="AL30" t="n">
-        <v>429100.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AM30" t="n">
-        <v>203500.0</v>
-      </c>
-      <c r="AN30" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO30" t="e">
-        <v>#DIV/0!</v>
+        <v>0.02</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AP30" t="n">
-        <v>21400.0</v>
+        <v>0.01</v>
       </c>
       <c r="AQ30" t="n">
-        <v>5009.09</v>
+        <v>-0.28</v>
       </c>
       <c r="AR30" t="n">
-        <v>1940.0</v>
+        <v>-0.16</v>
       </c>
       <c r="AS30" t="n">
-        <v>4600.0</v>
+        <v>-0.47</v>
       </c>
       <c r="AT30" t="n">
-        <v>7920.0</v>
-      </c>
-      <c r="AU30" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.28</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="31">
@@ -5386,34 +5386,34 @@
         <v>86.18</v>
       </c>
       <c r="AL31" t="n">
-        <v>278760.0</v>
+        <v>0.01</v>
       </c>
       <c r="AM31" t="n">
-        <v>111700.0</v>
-      </c>
-      <c r="AN31" t="e">
-        <v>#DIV/0!</v>
+        <v>0.03</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.04</v>
       </c>
       <c r="AO31" t="n">
-        <v>839400.0</v>
+        <v>0.01</v>
       </c>
       <c r="AP31" t="n">
-        <v>35800.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AQ31" t="n">
-        <v>3103.85</v>
+        <v>-0.22</v>
       </c>
       <c r="AR31" t="n">
-        <v>2150.0</v>
+        <v>0.17</v>
       </c>
       <c r="AS31" t="n">
-        <v>2800.0</v>
+        <v>-0.41</v>
       </c>
       <c r="AT31" t="n">
-        <v>3700.0</v>
+        <v>-0.28</v>
       </c>
       <c r="AU31" t="n">
-        <v>3300.0</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="32">
@@ -5526,37 +5526,37 @@
         <v>306</v>
       </c>
       <c r="AK32" t="n">
-        <v>89.7</v>
+        <v>89.702</v>
       </c>
       <c r="AL32" t="n">
-        <v>478550.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AM32" t="n">
-        <v>294900.0</v>
+        <v>0.03</v>
       </c>
       <c r="AN32" t="n">
-        <v>525933.33</v>
+        <v>-0.03</v>
       </c>
       <c r="AO32" t="n">
-        <v>964220.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP32" t="n">
-        <v>50233.33</v>
+        <v>-0.03</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2587.13</v>
+        <v>-0.24</v>
       </c>
       <c r="AR32" t="n">
-        <v>991.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>2317.07</v>
+        <v>-0.28</v>
       </c>
       <c r="AT32" t="n">
-        <v>5118.46</v>
+        <v>-0.09</v>
       </c>
       <c r="AU32" t="n">
-        <v>955.56</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="33">
@@ -5669,37 +5669,37 @@
         <v>306</v>
       </c>
       <c r="AK33" t="n">
-        <v>89.68</v>
+        <v>89.682</v>
       </c>
       <c r="AL33" t="n">
-        <v>475540.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AM33" t="n">
-        <v>208850.0</v>
+        <v>0.03</v>
       </c>
       <c r="AN33" t="n">
-        <v>385500.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AO33" t="n">
-        <v>1530900.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AP33" t="n">
-        <v>43600.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2895.92</v>
+        <v>-0.02</v>
       </c>
       <c r="AR33" t="n">
-        <v>1420.0</v>
+        <v>0.26</v>
       </c>
       <c r="AS33" t="n">
-        <v>2240.0</v>
+        <v>-0.2</v>
       </c>
       <c r="AT33" t="n">
-        <v>4836.36</v>
+        <v>-0.06</v>
       </c>
       <c r="AU33" t="n">
-        <v>428.57</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="34">
@@ -5812,37 +5812,37 @@
         <v>306</v>
       </c>
       <c r="AK34" t="n">
-        <v>88.76</v>
+        <v>88.759</v>
       </c>
       <c r="AL34" t="n">
-        <v>377064.71</v>
+        <v>-0.01</v>
       </c>
       <c r="AM34" t="n">
-        <v>225537.5</v>
+        <v>0.02</v>
       </c>
       <c r="AN34" t="n">
-        <v>379700.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO34" t="n">
-        <v>1110933.33</v>
+        <v>-0.02</v>
       </c>
       <c r="AP34" t="n">
-        <v>44633.33</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ34" t="n">
-        <v>2895.45</v>
+        <v>-0.13</v>
       </c>
       <c r="AR34" t="n">
-        <v>1384.21</v>
+        <v>-0.03</v>
       </c>
       <c r="AS34" t="n">
-        <v>3925.0</v>
+        <v>-0.2</v>
       </c>
       <c r="AT34" t="n">
-        <v>4370.18</v>
+        <v>-0.14</v>
       </c>
       <c r="AU34" t="n">
-        <v>1183.33</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="35">
@@ -5955,37 +5955,37 @@
         <v>306</v>
       </c>
       <c r="AK35" t="n">
-        <v>88.21</v>
+        <v>88.214</v>
       </c>
       <c r="AL35" t="n">
-        <v>928844.44</v>
+        <v>-0.0</v>
       </c>
       <c r="AM35" t="n">
-        <v>585475.0</v>
+        <v>0.03</v>
       </c>
       <c r="AN35" t="n">
-        <v>687350.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO35" t="n">
-        <v>1489500.0</v>
-      </c>
-      <c r="AP35" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.01</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2484.1</v>
+        <v>-0.13</v>
       </c>
       <c r="AR35" t="n">
-        <v>1171.76</v>
+        <v>0.02</v>
       </c>
       <c r="AS35" t="n">
-        <v>1990.32</v>
+        <v>-0.27</v>
       </c>
       <c r="AT35" t="n">
-        <v>4376.39</v>
+        <v>-0.13</v>
       </c>
       <c r="AU35" t="n">
-        <v>1142.86</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="36">
@@ -6098,37 +6098,37 @@
         <v>306</v>
       </c>
       <c r="AK36" t="n">
-        <v>88.94</v>
+        <v>88.939</v>
       </c>
       <c r="AL36" t="n">
-        <v>428466.67</v>
+        <v>-0.01</v>
       </c>
       <c r="AM36" t="n">
-        <v>175366.67</v>
-      </c>
-      <c r="AN36" t="e">
-        <v>#DIV/0!</v>
+        <v>0.03</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>-0.03</v>
       </c>
       <c r="AO36" t="n">
-        <v>521900.0</v>
-      </c>
-      <c r="AP36" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.01</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2886.96</v>
+        <v>-0.2</v>
       </c>
       <c r="AR36" t="n">
-        <v>815.79</v>
+        <v>-0.31</v>
       </c>
       <c r="AS36" t="n">
-        <v>3166.67</v>
+        <v>-0.05</v>
       </c>
       <c r="AT36" t="n">
-        <v>4805.0</v>
+        <v>-0.21</v>
       </c>
       <c r="AU36" t="n">
-        <v>2200.0</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="37">
@@ -6241,37 +6241,37 @@
         <v>306</v>
       </c>
       <c r="AK37" t="n">
-        <v>88.75</v>
+        <v>88.745</v>
       </c>
       <c r="AL37" t="n">
-        <v>311784.62</v>
+        <v>-0.0</v>
       </c>
       <c r="AM37" t="n">
-        <v>136900.0</v>
-      </c>
-      <c r="AN37" t="e">
-        <v>#DIV/0!</v>
+        <v>0.02</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>-0.03</v>
       </c>
       <c r="AO37" t="n">
-        <v>732700.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP37" t="n">
-        <v>47500.0</v>
+        <v>0.01</v>
       </c>
       <c r="AQ37" t="n">
-        <v>2970.59</v>
+        <v>-0.22</v>
       </c>
       <c r="AR37" t="n">
-        <v>981.08</v>
+        <v>-0.12</v>
       </c>
       <c r="AS37" t="n">
-        <v>2123.08</v>
+        <v>-0.19</v>
       </c>
       <c r="AT37" t="n">
-        <v>8986.67</v>
+        <v>-0.24</v>
       </c>
       <c r="AU37" t="n">
-        <v>1100.0</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="38">
@@ -6384,37 +6384,37 @@
         <v>306</v>
       </c>
       <c r="AK38" t="n">
-        <v>89.71</v>
+        <v>89.714</v>
       </c>
       <c r="AL38" t="n">
-        <v>1613666.67</v>
+        <v>0.0</v>
       </c>
       <c r="AM38" t="n">
-        <v>1113900.0</v>
-      </c>
-      <c r="AN38" t="e">
-        <v>#DIV/0!</v>
+        <v>0.03</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AO38" t="n">
-        <v>1370800.0</v>
-      </c>
-      <c r="AP38" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.01</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2936.96</v>
+        <v>-0.29</v>
       </c>
       <c r="AR38" t="n">
-        <v>1283.33</v>
+        <v>-0.34</v>
       </c>
       <c r="AS38" t="n">
-        <v>2082.35</v>
+        <v>-0.18</v>
       </c>
       <c r="AT38" t="n">
-        <v>4792.5</v>
+        <v>-0.29</v>
       </c>
       <c r="AU38" t="n">
-        <v>920.0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="39">
@@ -6527,37 +6527,37 @@
         <v>306</v>
       </c>
       <c r="AK39" t="n">
-        <v>86.83</v>
+        <v>86.829</v>
       </c>
       <c r="AL39" t="n">
-        <v>968500.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AM39" t="n">
-        <v>284033.33</v>
-      </c>
-      <c r="AN39" t="e">
-        <v>#DIV/0!</v>
+        <v>0.02</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AO39" t="n">
-        <v>2303400.0</v>
-      </c>
-      <c r="AP39" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.02</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AQ39" t="n">
-        <v>3021.05</v>
+        <v>-0.22</v>
       </c>
       <c r="AR39" t="n">
-        <v>1107.14</v>
+        <v>-0.2</v>
       </c>
       <c r="AS39" t="n">
-        <v>2225.0</v>
+        <v>-0.14</v>
       </c>
       <c r="AT39" t="n">
-        <v>4955.88</v>
+        <v>-0.24</v>
       </c>
       <c r="AU39" t="n">
-        <v>1700.0</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="40">
@@ -6673,34 +6673,34 @@
         <v>89.34</v>
       </c>
       <c r="AL40" t="n">
-        <v>1696200.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AM40" t="n">
-        <v>337350.0</v>
-      </c>
-      <c r="AN40" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO40" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP40" t="e">
-        <v>#DIV/0!</v>
+        <v>0.03</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2701.37</v>
+        <v>-0.13</v>
       </c>
       <c r="AR40" t="n">
-        <v>721.88</v>
+        <v>-0.05</v>
       </c>
       <c r="AS40" t="n">
-        <v>2850.0</v>
+        <v>-0.24</v>
       </c>
       <c r="AT40" t="n">
-        <v>4659.38</v>
+        <v>-0.12</v>
       </c>
       <c r="AU40" t="n">
-        <v>2200.0</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="41">
@@ -6813,37 +6813,37 @@
         <v>306</v>
       </c>
       <c r="AK41" t="n">
-        <v>85.14</v>
+        <v>85.137</v>
       </c>
       <c r="AL41" t="n">
-        <v>297200.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM41" t="n">
-        <v>125950.0</v>
+        <v>0.03</v>
       </c>
       <c r="AN41" t="n">
-        <v>156200.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO41" t="n">
-        <v>1215800.0</v>
-      </c>
-      <c r="AP41" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.0</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1153.0</v>
+        <v>-0.17</v>
       </c>
       <c r="AR41" t="n">
-        <v>486.36</v>
+        <v>1.19</v>
       </c>
       <c r="AS41" t="n">
-        <v>3350.0</v>
+        <v>-0.05</v>
       </c>
       <c r="AT41" t="n">
-        <v>2246.67</v>
-      </c>
-      <c r="AU41" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.39</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="42">
@@ -6956,37 +6956,37 @@
         <v>306</v>
       </c>
       <c r="AK42" t="n">
-        <v>89.82</v>
+        <v>89.819</v>
       </c>
       <c r="AL42" t="n">
-        <v>309030.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AM42" t="n">
-        <v>135675.0</v>
+        <v>0.03</v>
       </c>
       <c r="AN42" t="n">
-        <v>251900.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO42" t="n">
-        <v>976450.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AP42" t="n">
-        <v>45450.0</v>
+        <v>0.01</v>
       </c>
       <c r="AQ42" t="n">
-        <v>3105.17</v>
+        <v>-0.08</v>
       </c>
       <c r="AR42" t="n">
-        <v>1094.44</v>
+        <v>0.16</v>
       </c>
       <c r="AS42" t="n">
-        <v>2118.18</v>
+        <v>0.02</v>
       </c>
       <c r="AT42" t="n">
-        <v>4627.59</v>
-      </c>
-      <c r="AU42" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.13</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="43">
@@ -7099,37 +7099,37 @@
         <v>306</v>
       </c>
       <c r="AK43" t="n">
-        <v>88.85</v>
+        <v>88.851</v>
       </c>
       <c r="AL43" t="n">
-        <v>486014.29</v>
+        <v>-0.01</v>
       </c>
       <c r="AM43" t="n">
-        <v>315750.0</v>
+        <v>0.02</v>
       </c>
       <c r="AN43" t="n">
-        <v>219600.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO43" t="n">
-        <v>1014050.0</v>
-      </c>
-      <c r="AP43" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.02</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2790.0</v>
+        <v>-0.15</v>
       </c>
       <c r="AR43" t="n">
-        <v>822.58</v>
+        <v>-0.02</v>
       </c>
       <c r="AS43" t="n">
-        <v>2408.33</v>
+        <v>-0.22</v>
       </c>
       <c r="AT43" t="n">
-        <v>5468.0</v>
+        <v>-0.16</v>
       </c>
       <c r="AU43" t="n">
-        <v>2100.0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="44">
@@ -7245,34 +7245,34 @@
         <v>87.14</v>
       </c>
       <c r="AL44" t="n">
-        <v>519057.14</v>
+        <v>-0.01</v>
       </c>
       <c r="AM44" t="n">
-        <v>228300.0</v>
-      </c>
-      <c r="AN44" t="e">
-        <v>#DIV/0!</v>
+        <v>0.03</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AO44" t="n">
-        <v>1039550.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP44" t="n">
-        <v>48400.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2570.0</v>
+        <v>-0.12</v>
       </c>
       <c r="AR44" t="n">
-        <v>802.56</v>
+        <v>0.1</v>
       </c>
       <c r="AS44" t="n">
-        <v>2750.0</v>
+        <v>0.01</v>
       </c>
       <c r="AT44" t="n">
-        <v>5323.08</v>
+        <v>-0.19</v>
       </c>
       <c r="AU44" t="n">
-        <v>966.67</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="45">
@@ -7385,37 +7385,37 @@
         <v>306</v>
       </c>
       <c r="AK45" t="n">
-        <v>87.52</v>
+        <v>87.516</v>
       </c>
       <c r="AL45" t="n">
-        <v>853025.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AM45" t="n">
-        <v>373600.0</v>
+        <v>0.02</v>
       </c>
       <c r="AN45" t="n">
-        <v>680400.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO45" t="n">
-        <v>1931800.0</v>
-      </c>
-      <c r="AP45" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.01</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.01</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2937.7</v>
+        <v>-0.25</v>
       </c>
       <c r="AR45" t="n">
-        <v>867.74</v>
+        <v>-0.28</v>
       </c>
       <c r="AS45" t="n">
-        <v>1581.25</v>
+        <v>-0.21</v>
       </c>
       <c r="AT45" t="n">
-        <v>9569.23</v>
+        <v>-0.25</v>
       </c>
       <c r="AU45" t="n">
-        <v>2600.0</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="46">
@@ -7528,37 +7528,37 @@
         <v>306</v>
       </c>
       <c r="AK46" t="n">
-        <v>85.54</v>
+        <v>85.544</v>
       </c>
       <c r="AL46" t="n">
-        <v>701550.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM46" t="n">
-        <v>272800.0</v>
-      </c>
-      <c r="AN46" t="e">
-        <v>#DIV/0!</v>
+        <v>0.03</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AO46" t="n">
-        <v>1750200.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AP46" t="n">
-        <v>50900.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1834.52</v>
+        <v>-0.19</v>
       </c>
       <c r="AR46" t="n">
-        <v>775.0</v>
+        <v>0.11</v>
       </c>
       <c r="AS46" t="n">
-        <v>2010.0</v>
+        <v>-0.34</v>
       </c>
       <c r="AT46" t="n">
-        <v>2384.78</v>
-      </c>
-      <c r="AU46" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.2</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="47">
@@ -7671,37 +7671,37 @@
         <v>306</v>
       </c>
       <c r="AK47" t="n">
-        <v>83.97</v>
+        <v>83.965</v>
       </c>
       <c r="AL47" t="n">
-        <v>244373.33</v>
+        <v>-0.0</v>
       </c>
       <c r="AM47" t="n">
-        <v>923100.0</v>
+        <v>0.03</v>
       </c>
       <c r="AN47" t="n">
-        <v>201500.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO47" t="n">
-        <v>230411.11</v>
+        <v>-0.01</v>
       </c>
       <c r="AP47" t="n">
-        <v>32150.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1811.97</v>
+        <v>-0.19</v>
       </c>
       <c r="AR47" t="n">
-        <v>710.0</v>
+        <v>-0.15</v>
       </c>
       <c r="AS47" t="n">
-        <v>1450.0</v>
+        <v>-0.24</v>
       </c>
       <c r="AT47" t="n">
-        <v>3119.15</v>
+        <v>-0.19</v>
       </c>
       <c r="AU47" t="n">
-        <v>1900.0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="48">
@@ -7814,37 +7814,37 @@
         <v>306</v>
       </c>
       <c r="AK48" t="n">
-        <v>82.32</v>
+        <v>82.321</v>
       </c>
       <c r="AL48" t="n">
-        <v>618266.67</v>
-      </c>
-      <c r="AM48" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0.03</v>
       </c>
       <c r="AN48" t="n">
-        <v>296300.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000200.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AP48" t="n">
-        <v>42800.0</v>
+        <v>0.02</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2033.33</v>
+        <v>-0.19</v>
       </c>
       <c r="AR48" t="n">
-        <v>540.91</v>
+        <v>-0.1</v>
       </c>
       <c r="AS48" t="n">
-        <v>1500.0</v>
+        <v>-0.43</v>
       </c>
       <c r="AT48" t="n">
-        <v>4094.44</v>
+        <v>-0.16</v>
       </c>
       <c r="AU48" t="n">
-        <v>1500.0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="49">
@@ -7957,37 +7957,37 @@
         <v>306</v>
       </c>
       <c r="AK49" t="n">
-        <v>84.91</v>
+        <v>84.908</v>
       </c>
       <c r="AL49" t="n">
-        <v>515485.71</v>
+        <v>-0.0</v>
       </c>
       <c r="AM49" t="n">
-        <v>284133.33</v>
+        <v>0.03</v>
       </c>
       <c r="AN49" t="n">
-        <v>645700.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO49" t="n">
-        <v>675000.0</v>
-      </c>
-      <c r="AP49" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.01</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1886.84</v>
+        <v>-0.13</v>
       </c>
       <c r="AR49" t="n">
-        <v>700.0</v>
+        <v>0.19</v>
       </c>
       <c r="AS49" t="n">
-        <v>2166.67</v>
+        <v>-0.06</v>
       </c>
       <c r="AT49" t="n">
-        <v>3260.47</v>
+        <v>-0.22</v>
       </c>
       <c r="AU49" t="n">
-        <v>1766.67</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="50">
@@ -8100,37 +8100,37 @@
         <v>306</v>
       </c>
       <c r="AK50" t="n">
-        <v>85.64</v>
+        <v>85.639</v>
       </c>
       <c r="AL50" t="n">
-        <v>253072.73</v>
+        <v>-0.01</v>
       </c>
       <c r="AM50" t="n">
-        <v>203866.67</v>
+        <v>0.03</v>
       </c>
       <c r="AN50" t="n">
-        <v>452900.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO50" t="n">
-        <v>279250.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP50" t="n">
-        <v>43800.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2870.18</v>
+        <v>-0.19</v>
       </c>
       <c r="AR50" t="n">
-        <v>1165.0</v>
+        <v>-0.26</v>
       </c>
       <c r="AS50" t="n">
-        <v>2737.5</v>
+        <v>-0.13</v>
       </c>
       <c r="AT50" t="n">
-        <v>4121.43</v>
+        <v>-0.19</v>
       </c>
       <c r="AU50" t="n">
-        <v>3000.0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="51">
@@ -8243,37 +8243,37 @@
         <v>306</v>
       </c>
       <c r="AK51" t="n">
-        <v>85.06</v>
+        <v>85.058</v>
       </c>
       <c r="AL51" t="n">
-        <v>115141.25</v>
+        <v>-0.0</v>
       </c>
       <c r="AM51" t="n">
-        <v>95352.0</v>
+        <v>0.02</v>
       </c>
       <c r="AN51" t="n">
-        <v>33955.32</v>
+        <v>-0.02</v>
       </c>
       <c r="AO51" t="n">
-        <v>1262000.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP51" t="n">
-        <v>45900.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1182.98</v>
+        <v>0.02</v>
       </c>
       <c r="AR51" t="n">
-        <v>514.55</v>
+        <v>0.87</v>
       </c>
       <c r="AS51" t="n">
-        <v>2131.43</v>
+        <v>-0.07</v>
       </c>
       <c r="AT51" t="n">
-        <v>3457.14</v>
+        <v>-0.2</v>
       </c>
       <c r="AU51" t="n">
-        <v>900.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -8386,37 +8386,37 @@
         <v>306</v>
       </c>
       <c r="AK52" t="n">
-        <v>88.53</v>
+        <v>88.529</v>
       </c>
       <c r="AL52" t="n">
-        <v>429116.67</v>
+        <v>0.0</v>
       </c>
       <c r="AM52" t="n">
-        <v>182850.0</v>
-      </c>
-      <c r="AN52" t="e">
-        <v>#DIV/0!</v>
+        <v>0.03</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AO52" t="n">
-        <v>416525.0</v>
-      </c>
-      <c r="AP52" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0.01</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2804.26</v>
+        <v>-0.15</v>
       </c>
       <c r="AR52" t="n">
-        <v>1147.37</v>
+        <v>0.45</v>
       </c>
       <c r="AS52" t="n">
-        <v>3140.0</v>
+        <v>-0.37</v>
       </c>
       <c r="AT52" t="n">
-        <v>4186.36</v>
+        <v>-0.18</v>
       </c>
       <c r="AU52" t="n">
-        <v>2200.0</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="53">
@@ -8532,34 +8532,34 @@
         <v>86.16</v>
       </c>
       <c r="AL53" t="n">
-        <v>1066533.33</v>
+        <v>-0.01</v>
       </c>
       <c r="AM53" t="n">
-        <v>769000.0</v>
-      </c>
-      <c r="AN53" t="e">
-        <v>#DIV/0!</v>
+        <v>0.03</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AO53" t="n">
-        <v>1853100.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AP53" t="n">
-        <v>59900.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2904.92</v>
+        <v>-0.15</v>
       </c>
       <c r="AR53" t="n">
-        <v>912.5</v>
+        <v>-0.14</v>
       </c>
       <c r="AS53" t="n">
-        <v>3266.67</v>
+        <v>-0.25</v>
       </c>
       <c r="AT53" t="n">
-        <v>4922.22</v>
+        <v>-0.13</v>
       </c>
       <c r="AU53" t="n">
-        <v>700.0</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="54">
@@ -8675,34 +8675,34 @@
         <v>87.52</v>
       </c>
       <c r="AL54" t="n">
-        <v>614925.0</v>
-      </c>
-      <c r="AM54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN54" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.01</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AO54" t="n">
-        <v>1340200.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AP54" t="n">
-        <v>19066.67</v>
+        <v>0.01</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2028.99</v>
+        <v>-0.07</v>
       </c>
       <c r="AR54" t="n">
-        <v>646.43</v>
+        <v>-0.04</v>
       </c>
       <c r="AS54" t="n">
-        <v>1881.82</v>
+        <v>-0.24</v>
       </c>
       <c r="AT54" t="n">
-        <v>4125.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AU54" t="n">
-        <v>366.67</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="55">
@@ -8815,37 +8815,37 @@
         <v>306</v>
       </c>
       <c r="AK55" t="n">
-        <v>86.87</v>
+        <v>86.865</v>
       </c>
       <c r="AL55" t="n">
-        <v>658600.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AM55" t="n">
-        <v>174900.0</v>
+        <v>0.05</v>
       </c>
       <c r="AN55" t="n">
-        <v>219750.0</v>
-      </c>
-      <c r="AO55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP55" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.01</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>0.0</v>
       </c>
       <c r="AQ55" t="n">
-        <v>2320.83</v>
+        <v>-0.23</v>
       </c>
       <c r="AR55" t="n">
-        <v>360.0</v>
+        <v>-0.12</v>
       </c>
       <c r="AS55" t="n">
-        <v>1463.64</v>
+        <v>-0.49</v>
       </c>
       <c r="AT55" t="n">
-        <v>6775.0</v>
+        <v>-0.2</v>
       </c>
       <c r="AU55" t="n">
-        <v>483.33</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="56">
@@ -8958,37 +8958,37 @@
         <v>306</v>
       </c>
       <c r="AK56" t="n">
-        <v>85.61</v>
+        <v>85.608</v>
       </c>
       <c r="AL56" t="n">
-        <v>110691.67</v>
+        <v>0.01</v>
       </c>
       <c r="AM56" t="n">
-        <v>55350.0</v>
-      </c>
-      <c r="AN56" t="e">
-        <v>#DIV/0!</v>
+        <v>0.05</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AO56" t="n">
-        <v>155750.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP56" t="n">
-        <v>30800.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1570.73</v>
+        <v>-0.23</v>
       </c>
       <c r="AR56" t="n">
-        <v>386.67</v>
+        <v>-0.08</v>
       </c>
       <c r="AS56" t="n">
-        <v>1100.0</v>
+        <v>-0.41</v>
       </c>
       <c r="AT56" t="n">
-        <v>3094.12</v>
+        <v>-0.23</v>
       </c>
       <c r="AU56" t="n">
-        <v>450.0</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="57">
@@ -9101,37 +9101,37 @@
         <v>306</v>
       </c>
       <c r="AK57" t="n">
-        <v>84.64</v>
+        <v>84.637</v>
       </c>
       <c r="AL57" t="n">
-        <v>59266.99</v>
+        <v>-0.0</v>
       </c>
       <c r="AM57" t="n">
-        <v>27489.13</v>
+        <v>0.04</v>
       </c>
       <c r="AN57" t="n">
-        <v>73306.25</v>
+        <v>-0.02</v>
       </c>
       <c r="AO57" t="n">
-        <v>235580.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP57" t="n">
-        <v>5130.77</v>
+        <v>-0.0</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1570.31</v>
+        <v>-0.16</v>
       </c>
       <c r="AR57" t="n">
-        <v>510.61</v>
+        <v>-0.15</v>
       </c>
       <c r="AS57" t="n">
-        <v>655.71</v>
+        <v>-0.02</v>
       </c>
       <c r="AT57" t="n">
-        <v>4440.82</v>
+        <v>-0.18</v>
       </c>
       <c r="AU57" t="n">
-        <v>614.29</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="58">
@@ -9244,37 +9244,37 @@
         <v>306</v>
       </c>
       <c r="AK58" t="n">
-        <v>85.44</v>
+        <v>85.438</v>
       </c>
       <c r="AL58" t="n">
-        <v>468850.0</v>
+        <v>0.01</v>
       </c>
       <c r="AM58" t="n">
-        <v>209900.0</v>
+        <v>0.05</v>
       </c>
       <c r="AN58" t="n">
-        <v>281200.0</v>
-      </c>
-      <c r="AO58" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.02</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>-0.0</v>
       </c>
       <c r="AP58" t="n">
-        <v>43300.0</v>
+        <v>0.01</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1807.41</v>
+        <v>-0.08</v>
       </c>
       <c r="AR58" t="n">
-        <v>557.58</v>
+        <v>0.58</v>
       </c>
       <c r="AS58" t="n">
-        <v>2300.0</v>
+        <v>-0.3</v>
       </c>
       <c r="AT58" t="n">
-        <v>4293.75</v>
+        <v>-0.13</v>
       </c>
       <c r="AU58" t="n">
-        <v>1300.0</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="59">
@@ -9390,34 +9390,34 @@
         <v>82.08</v>
       </c>
       <c r="AL59" t="n">
-        <v>399130.0</v>
+        <v>0.01</v>
       </c>
       <c r="AM59" t="n">
-        <v>281150.0</v>
+        <v>0.04</v>
       </c>
       <c r="AN59" t="n">
-        <v>126200.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO59" t="n">
-        <v>781066.67</v>
-      </c>
-      <c r="AP59" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.0</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1352.52</v>
+        <v>-0.21</v>
       </c>
       <c r="AR59" t="n">
-        <v>498.18</v>
+        <v>-0.05</v>
       </c>
       <c r="AS59" t="n">
-        <v>1011.76</v>
+        <v>-0.12</v>
       </c>
       <c r="AT59" t="n">
-        <v>2520.37</v>
+        <v>-0.26</v>
       </c>
       <c r="AU59" t="n">
-        <v>561.54</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="60">
@@ -9533,34 +9533,34 @@
         <v>82.43</v>
       </c>
       <c r="AL60" t="n">
-        <v>61626.36</v>
+        <v>0.02</v>
       </c>
       <c r="AM60" t="n">
-        <v>51297.3</v>
+        <v>0.07</v>
       </c>
       <c r="AN60" t="n">
-        <v>9773.13</v>
+        <v>-0.03</v>
       </c>
       <c r="AO60" t="n">
-        <v>468027.27</v>
+        <v>0.01</v>
       </c>
       <c r="AP60" t="n">
-        <v>17764.29</v>
+        <v>-0.01</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1008.43</v>
+        <v>-0.26</v>
       </c>
       <c r="AR60" t="n">
-        <v>374.78</v>
+        <v>-0.18</v>
       </c>
       <c r="AS60" t="n">
-        <v>519.7</v>
+        <v>-0.19</v>
       </c>
       <c r="AT60" t="n">
-        <v>1868.75</v>
+        <v>-0.3</v>
       </c>
       <c r="AU60" t="n">
-        <v>403.23</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="61">
@@ -9673,37 +9673,37 @@
         <v>306</v>
       </c>
       <c r="AK61" t="n">
-        <v>74.12</v>
+        <v>74.121</v>
       </c>
       <c r="AL61" t="n">
-        <v>146441.67</v>
+        <v>0.01</v>
       </c>
       <c r="AM61" t="n">
-        <v>110376.76</v>
+        <v>0.05</v>
       </c>
       <c r="AN61" t="n">
-        <v>209713.33</v>
+        <v>-0.02</v>
       </c>
       <c r="AO61" t="n">
-        <v>230139.19</v>
+        <v>-0.02</v>
       </c>
       <c r="AP61" t="n">
-        <v>50180.95</v>
+        <v>0.01</v>
       </c>
       <c r="AQ61" t="n">
-        <v>516.51</v>
+        <v>0.15</v>
       </c>
       <c r="AR61" t="n">
-        <v>251.95</v>
+        <v>0.48</v>
       </c>
       <c r="AS61" t="n">
-        <v>815.24</v>
+        <v>-0.46</v>
       </c>
       <c r="AT61" t="n">
-        <v>2365.84</v>
+        <v>0.05</v>
       </c>
       <c r="AU61" t="n">
-        <v>233.57</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="62">
@@ -9816,37 +9816,37 @@
         <v>306</v>
       </c>
       <c r="AK62" t="n">
-        <v>81.69</v>
+        <v>81.688</v>
       </c>
       <c r="AL62" t="n">
-        <v>470940.0</v>
+        <v>0.01</v>
       </c>
       <c r="AM62" t="n">
-        <v>224200.0</v>
+        <v>0.04</v>
       </c>
       <c r="AN62" t="n">
-        <v>465600.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AO62" t="n">
-        <v>1368250.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP62" t="n">
-        <v>162100.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1606.79</v>
+        <v>-0.27</v>
       </c>
       <c r="AR62" t="n">
-        <v>626.83</v>
+        <v>-0.11</v>
       </c>
       <c r="AS62" t="n">
-        <v>1523.08</v>
+        <v>-0.43</v>
       </c>
       <c r="AT62" t="n">
-        <v>2895.16</v>
+        <v>-0.29</v>
       </c>
       <c r="AU62" t="n">
-        <v>1920.0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="63">
@@ -9959,37 +9959,37 @@
         <v>306</v>
       </c>
       <c r="AK63" t="n">
-        <v>85.87</v>
+        <v>85.872</v>
       </c>
       <c r="AL63" t="n">
-        <v>425111.11</v>
+        <v>0.0</v>
       </c>
       <c r="AM63" t="n">
-        <v>121400.0</v>
+        <v>0.05</v>
       </c>
       <c r="AN63" t="n">
-        <v>308700.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO63" t="n">
-        <v>2577100.0</v>
-      </c>
-      <c r="AP63" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.0</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-0.0</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1229.66</v>
+        <v>-0.16</v>
       </c>
       <c r="AR63" t="n">
-        <v>419.67</v>
+        <v>-0.21</v>
       </c>
       <c r="AS63" t="n">
-        <v>584.0</v>
+        <v>0.16</v>
       </c>
       <c r="AT63" t="n">
-        <v>3190.48</v>
+        <v>-0.18</v>
       </c>
       <c r="AU63" t="n">
-        <v>241.18</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="64">
@@ -10102,37 +10102,37 @@
         <v>306</v>
       </c>
       <c r="AK64" t="n">
-        <v>82.6</v>
+        <v>82.598</v>
       </c>
       <c r="AL64" t="n">
-        <v>342041.38</v>
+        <v>0.0</v>
       </c>
       <c r="AM64" t="n">
-        <v>156320.0</v>
+        <v>0.05</v>
       </c>
       <c r="AN64" t="n">
-        <v>193260.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO64" t="n">
-        <v>1251120.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP64" t="n">
-        <v>88125.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1326.95</v>
+        <v>-0.24</v>
       </c>
       <c r="AR64" t="n">
-        <v>505.47</v>
+        <v>0.03</v>
       </c>
       <c r="AS64" t="n">
-        <v>531.94</v>
+        <v>-0.19</v>
       </c>
       <c r="AT64" t="n">
-        <v>2514.11</v>
+        <v>-0.28</v>
       </c>
       <c r="AU64" t="n">
-        <v>411.76</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="65">
@@ -10245,37 +10245,37 @@
         <v>306</v>
       </c>
       <c r="AK65" t="n">
-        <v>85.9</v>
+        <v>85.895</v>
       </c>
       <c r="AL65" t="n">
-        <v>276490.91</v>
+        <v>0.01</v>
       </c>
       <c r="AM65" t="n">
-        <v>673400.0</v>
+        <v>0.06</v>
       </c>
       <c r="AN65" t="n">
-        <v>190400.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO65" t="n">
-        <v>261925.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AP65" t="n">
-        <v>82200.0</v>
+        <v>0.01</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1273.63</v>
+        <v>-0.44</v>
       </c>
       <c r="AR65" t="n">
-        <v>376.6</v>
+        <v>-0.68</v>
       </c>
       <c r="AS65" t="n">
-        <v>1014.29</v>
+        <v>-0.43</v>
       </c>
       <c r="AT65" t="n">
-        <v>4425.0</v>
+        <v>-0.32</v>
       </c>
       <c r="AU65" t="n">
-        <v>152.94</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="66">
@@ -10388,37 +10388,37 @@
         <v>306</v>
       </c>
       <c r="AK66" t="n">
-        <v>81.6</v>
+        <v>81.596</v>
       </c>
       <c r="AL66" t="n">
-        <v>123475.25</v>
+        <v>0.02</v>
       </c>
       <c r="AM66" t="n">
-        <v>77949.45</v>
+        <v>0.07</v>
       </c>
       <c r="AN66" t="n">
-        <v>301292.31</v>
+        <v>-0.03</v>
       </c>
       <c r="AO66" t="n">
-        <v>247322.22</v>
+        <v>0.01</v>
       </c>
       <c r="AP66" t="n">
-        <v>13100.0</v>
+        <v>0.02</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1007.69</v>
+        <v>-0.12</v>
       </c>
       <c r="AR66" t="n">
-        <v>404.31</v>
+        <v>0.16</v>
       </c>
       <c r="AS66" t="n">
-        <v>928.85</v>
+        <v>-0.18</v>
       </c>
       <c r="AT66" t="n">
-        <v>2060.7</v>
+        <v>-0.18</v>
       </c>
       <c r="AU66" t="n">
-        <v>529.73</v>
+        <v>-0.07</v>
       </c>
     </row>
     <row r="67">
@@ -10531,37 +10531,37 @@
         <v>306</v>
       </c>
       <c r="AK67" t="n">
-        <v>87.83</v>
+        <v>87.834</v>
       </c>
       <c r="AL67" t="n">
-        <v>787860.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AM67" t="n">
-        <v>734800.0</v>
+        <v>0.05</v>
       </c>
       <c r="AN67" t="n">
-        <v>361800.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO67" t="n">
-        <v>1381500.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP67" t="n">
-        <v>79700.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1373.72</v>
+        <v>-0.14</v>
       </c>
       <c r="AR67" t="n">
-        <v>540.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AS67" t="n">
-        <v>654.17</v>
+        <v>-0.06</v>
       </c>
       <c r="AT67" t="n">
-        <v>2280.0</v>
+        <v>-0.18</v>
       </c>
       <c r="AU67" t="n">
-        <v>415.38</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="68">
@@ -10677,34 +10677,34 @@
         <v>87.72</v>
       </c>
       <c r="AL68" t="n">
-        <v>323914.29</v>
+        <v>-0.01</v>
       </c>
       <c r="AM68" t="n">
-        <v>194350.0</v>
-      </c>
-      <c r="AN68" t="e">
-        <v>#DIV/0!</v>
+        <v>0.06</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AO68" t="n">
-        <v>326780.0</v>
-      </c>
-      <c r="AP68" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.02</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1990.77</v>
+        <v>-0.1</v>
       </c>
       <c r="AR68" t="n">
-        <v>307.41</v>
+        <v>0.03</v>
       </c>
       <c r="AS68" t="n">
-        <v>900.0</v>
+        <v>-0.11</v>
       </c>
       <c r="AT68" t="n">
-        <v>4904.55</v>
+        <v>-0.11</v>
       </c>
       <c r="AU68" t="n">
-        <v>500.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
@@ -10820,34 +10820,34 @@
         <v>83.46</v>
       </c>
       <c r="AL69" t="n">
-        <v>627100.0</v>
+        <v>0.01</v>
       </c>
       <c r="AM69" t="n">
-        <v>568500.0</v>
+        <v>0.05</v>
       </c>
       <c r="AN69" t="n">
-        <v>333200.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO69" t="n">
-        <v>762700.0</v>
-      </c>
-      <c r="AP69" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.0</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>0.01</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1315.32</v>
+        <v>-0.1</v>
       </c>
       <c r="AR69" t="n">
-        <v>704.17</v>
+        <v>0.9</v>
       </c>
       <c r="AS69" t="n">
-        <v>1169.23</v>
+        <v>-0.27</v>
       </c>
       <c r="AT69" t="n">
-        <v>3557.69</v>
+        <v>-0.25</v>
       </c>
       <c r="AU69" t="n">
-        <v>187.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="70">
@@ -10960,37 +10960,37 @@
         <v>306</v>
       </c>
       <c r="AK70" t="n">
-        <v>85.92</v>
+        <v>85.923</v>
       </c>
       <c r="AL70" t="n">
-        <v>1549050.0</v>
+        <v>0.01</v>
       </c>
       <c r="AM70" t="n">
-        <v>366100.0</v>
-      </c>
-      <c r="AN70" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO70" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP70" t="e">
-        <v>#DIV/0!</v>
+        <v>0.04</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>-0.0</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>0.0</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1450.47</v>
+        <v>-0.22</v>
       </c>
       <c r="AR70" t="n">
-        <v>714.63</v>
+        <v>-0.11</v>
       </c>
       <c r="AS70" t="n">
-        <v>1530.0</v>
+        <v>-0.26</v>
       </c>
       <c r="AT70" t="n">
-        <v>2933.33</v>
+        <v>-0.27</v>
       </c>
       <c r="AU70" t="n">
-        <v>250.0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="71">
@@ -11106,34 +11106,34 @@
         <v>83.74</v>
       </c>
       <c r="AL71" t="n">
-        <v>223600.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AM71" t="n">
-        <v>108457.14</v>
+        <v>0.04</v>
       </c>
       <c r="AN71" t="n">
-        <v>216100.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO71" t="n">
-        <v>471400.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP71" t="n">
-        <v>53400.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1351.77</v>
+        <v>-0.06</v>
       </c>
       <c r="AR71" t="n">
-        <v>588.24</v>
+        <v>0.17</v>
       </c>
       <c r="AS71" t="n">
-        <v>1047.83</v>
+        <v>-0.07</v>
       </c>
       <c r="AT71" t="n">
-        <v>2511.32</v>
+        <v>-0.12</v>
       </c>
       <c r="AU71" t="n">
-        <v>242.86</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="72">
@@ -11246,37 +11246,37 @@
         <v>306</v>
       </c>
       <c r="AK72" t="n">
-        <v>84.18</v>
+        <v>84.182</v>
       </c>
       <c r="AL72" t="n">
-        <v>605757.14</v>
+        <v>0.01</v>
       </c>
       <c r="AM72" t="n">
-        <v>460300.0</v>
-      </c>
-      <c r="AN72" t="e">
-        <v>#DIV/0!</v>
+        <v>0.05</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AO72" t="n">
-        <v>582620.0</v>
-      </c>
-      <c r="AP72" t="e">
-        <v>#DIV/0!</v>
+        <v>0.0</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1689.72</v>
+        <v>-0.29</v>
       </c>
       <c r="AR72" t="n">
-        <v>442.86</v>
+        <v>-0.22</v>
       </c>
       <c r="AS72" t="n">
-        <v>525.0</v>
+        <v>-0.49</v>
       </c>
       <c r="AT72" t="n">
-        <v>4238.24</v>
+        <v>-0.28</v>
       </c>
       <c r="AU72" t="n">
-        <v>1125.0</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="73">
@@ -11389,37 +11389,37 @@
         <v>306</v>
       </c>
       <c r="AK73" t="n">
-        <v>85.02</v>
+        <v>85.018</v>
       </c>
       <c r="AL73" t="n">
-        <v>639540.0</v>
+        <v>0.01</v>
       </c>
       <c r="AM73" t="n">
-        <v>296350.0</v>
-      </c>
-      <c r="AN73" t="e">
-        <v>#DIV/0!</v>
+        <v>0.05</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AO73" t="n">
-        <v>1142650.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP73" t="n">
-        <v>100200.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1768.83</v>
+        <v>-0.3</v>
       </c>
       <c r="AR73" t="n">
-        <v>424.24</v>
+        <v>-0.16</v>
       </c>
       <c r="AS73" t="n">
-        <v>1055.56</v>
+        <v>-0.29</v>
       </c>
       <c r="AT73" t="n">
-        <v>3824.14</v>
+        <v>-0.31</v>
       </c>
       <c r="AU73" t="n">
-        <v>300.0</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="74">
@@ -11532,37 +11532,37 @@
         <v>306</v>
       </c>
       <c r="AK74" t="n">
-        <v>88.54</v>
+        <v>88.543</v>
       </c>
       <c r="AL74" t="n">
-        <v>320705.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM74" t="n">
-        <v>131312.5</v>
+        <v>0.07</v>
       </c>
       <c r="AN74" t="n">
-        <v>428900.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO74" t="n">
-        <v>518244.44</v>
+        <v>-0.01</v>
       </c>
       <c r="AP74" t="n">
-        <v>135250.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1280.69</v>
+        <v>-0.18</v>
       </c>
       <c r="AR74" t="n">
-        <v>333.67</v>
+        <v>0.14</v>
       </c>
       <c r="AS74" t="n">
-        <v>217.24</v>
+        <v>-0.24</v>
       </c>
       <c r="AT74" t="n">
-        <v>4346.77</v>
+        <v>-0.22</v>
       </c>
       <c r="AU74" t="n">
-        <v>883.33</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="75">
@@ -11675,37 +11675,37 @@
         <v>306</v>
       </c>
       <c r="AK75" t="n">
-        <v>85.16</v>
+        <v>85.161</v>
       </c>
       <c r="AL75" t="n">
-        <v>232174.07</v>
+        <v>0.0</v>
       </c>
       <c r="AM75" t="n">
-        <v>81850.0</v>
+        <v>0.05</v>
       </c>
       <c r="AN75" t="n">
-        <v>392000.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO75" t="n">
-        <v>684650.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP75" t="n">
-        <v>72540.0</v>
+        <v>0.01</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1230.29</v>
+        <v>-0.24</v>
       </c>
       <c r="AR75" t="n">
-        <v>384.8</v>
+        <v>0.48</v>
       </c>
       <c r="AS75" t="n">
-        <v>725.29</v>
+        <v>-0.12</v>
       </c>
       <c r="AT75" t="n">
-        <v>3292.72</v>
+        <v>-0.33</v>
       </c>
       <c r="AU75" t="n">
-        <v>512.5</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="76">
@@ -11818,37 +11818,37 @@
         <v>306</v>
       </c>
       <c r="AK76" t="n">
-        <v>86.32</v>
+        <v>86.316</v>
       </c>
       <c r="AL76" t="n">
-        <v>748300.0</v>
-      </c>
-      <c r="AM76" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.01</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>0.02</v>
       </c>
       <c r="AN76" t="n">
-        <v>371000.0</v>
-      </c>
-      <c r="AO76" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.03</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AP76" t="n">
-        <v>28700.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2422.58</v>
+        <v>-0.28</v>
       </c>
       <c r="AR76" t="n">
-        <v>1120.0</v>
+        <v>-0.44</v>
       </c>
       <c r="AS76" t="n">
-        <v>957.14</v>
+        <v>-0.22</v>
       </c>
       <c r="AT76" t="n">
-        <v>5009.09</v>
+        <v>-0.25</v>
       </c>
       <c r="AU76" t="n">
-        <v>1000.0</v>
+        <v>-0.69</v>
       </c>
     </row>
     <row r="77">
@@ -11961,37 +11961,37 @@
         <v>306</v>
       </c>
       <c r="AK77" t="n">
-        <v>86.6</v>
+        <v>86.598</v>
       </c>
       <c r="AL77" t="n">
-        <v>243400.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AM77" t="n">
-        <v>243700.0</v>
-      </c>
-      <c r="AN77" t="e">
-        <v>#DIV/0!</v>
+        <v>0.04</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AO77" t="n">
-        <v>161727.27</v>
-      </c>
-      <c r="AP77" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.01</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>0.0</v>
       </c>
       <c r="AQ77" t="n">
-        <v>2056.44</v>
+        <v>-0.11</v>
       </c>
       <c r="AR77" t="n">
-        <v>732.61</v>
+        <v>0.02</v>
       </c>
       <c r="AS77" t="n">
-        <v>1491.67</v>
+        <v>0.08</v>
       </c>
       <c r="AT77" t="n">
-        <v>4839.29</v>
+        <v>-0.17</v>
       </c>
       <c r="AU77" t="n">
-        <v>900.0</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="78">
@@ -12104,37 +12104,37 @@
         <v>306</v>
       </c>
       <c r="AK78" t="n">
-        <v>89.45</v>
+        <v>89.448</v>
       </c>
       <c r="AL78" t="n">
-        <v>163814.29</v>
+        <v>-0.0</v>
       </c>
       <c r="AM78" t="n">
-        <v>140125.0</v>
+        <v>0.02</v>
       </c>
       <c r="AN78" t="n">
-        <v>447100.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO78" t="n">
-        <v>414633.33</v>
+        <v>0.0</v>
       </c>
       <c r="AP78" t="n">
-        <v>6983.33</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ78" t="n">
-        <v>2538.78</v>
+        <v>-0.21</v>
       </c>
       <c r="AR78" t="n">
-        <v>1172.73</v>
+        <v>0.03</v>
       </c>
       <c r="AS78" t="n">
-        <v>2487.5</v>
+        <v>-0.11</v>
       </c>
       <c r="AT78" t="n">
-        <v>4558.82</v>
+        <v>-0.28</v>
       </c>
       <c r="AU78" t="n">
-        <v>600.0</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="79">
@@ -12247,37 +12247,37 @@
         <v>306</v>
       </c>
       <c r="AK79" t="n">
-        <v>87.02</v>
+        <v>87.024</v>
       </c>
       <c r="AL79" t="n">
-        <v>287600.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AM79" t="n">
-        <v>151950.0</v>
-      </c>
-      <c r="AN79" t="e">
-        <v>#DIV/0!</v>
+        <v>0.01</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AO79" t="n">
-        <v>844100.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP79" t="n">
-        <v>15950.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1906.52</v>
+        <v>-0.1</v>
       </c>
       <c r="AR79" t="n">
-        <v>540.74</v>
+        <v>0.1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1616.67</v>
+        <v>-0.34</v>
       </c>
       <c r="AT79" t="n">
-        <v>4761.54</v>
-      </c>
-      <c r="AU79" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.08</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="80">
@@ -12390,37 +12390,37 @@
         <v>306</v>
       </c>
       <c r="AK80" t="n">
-        <v>86.38</v>
+        <v>86.382</v>
       </c>
       <c r="AL80" t="n">
-        <v>240616.67</v>
+        <v>0.0</v>
       </c>
       <c r="AM80" t="n">
-        <v>187625.0</v>
+        <v>0.02</v>
       </c>
       <c r="AN80" t="n">
-        <v>453900.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO80" t="n">
-        <v>326600.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AP80" t="n">
-        <v>25000.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1998.11</v>
+        <v>-0.16</v>
       </c>
       <c r="AR80" t="n">
-        <v>722.41</v>
+        <v>0.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>2241.67</v>
+        <v>-0.01</v>
       </c>
       <c r="AT80" t="n">
-        <v>4114.71</v>
+        <v>-0.26</v>
       </c>
       <c r="AU80" t="n">
-        <v>1550.0</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="81">
@@ -12533,37 +12533,37 @@
         <v>306</v>
       </c>
       <c r="AK81" t="n">
-        <v>87.72</v>
+        <v>87.717</v>
       </c>
       <c r="AL81" t="n">
-        <v>395725.0</v>
+        <v>0.01</v>
       </c>
       <c r="AM81" t="n">
-        <v>263000.0</v>
-      </c>
-      <c r="AN81" t="e">
-        <v>#DIV/0!</v>
+        <v>0.05</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AO81" t="n">
-        <v>392366.67</v>
-      </c>
-      <c r="AP81" t="e">
-        <v>#DIV/0!</v>
+        <v>0.01</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>0.01</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1278.72</v>
+        <v>-0.31</v>
       </c>
       <c r="AR81" t="n">
-        <v>283.33</v>
+        <v>0.15</v>
       </c>
       <c r="AS81" t="n">
-        <v>875.0</v>
+        <v>-0.43</v>
       </c>
       <c r="AT81" t="n">
-        <v>2331.82</v>
+        <v>-0.33</v>
       </c>
       <c r="AU81" t="n">
-        <v>66.67</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="82">
@@ -12676,37 +12676,37 @@
         <v>306</v>
       </c>
       <c r="AK82" t="n">
-        <v>89.29</v>
+        <v>89.289</v>
       </c>
       <c r="AL82" t="n">
-        <v>308325.0</v>
+        <v>0.01</v>
       </c>
       <c r="AM82" t="n">
-        <v>172100.0</v>
+        <v>0.06</v>
       </c>
       <c r="AN82" t="n">
-        <v>49900.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO82" t="n">
-        <v>933900.0</v>
-      </c>
-      <c r="AP82" t="e">
-        <v>#DIV/0!</v>
+        <v>0.01</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1353.66</v>
+        <v>-0.23</v>
       </c>
       <c r="AR82" t="n">
-        <v>250.0</v>
+        <v>0.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1300.0</v>
+        <v>0.33</v>
       </c>
       <c r="AT82" t="n">
-        <v>2676.47</v>
+        <v>-0.3</v>
       </c>
       <c r="AU82" t="n">
-        <v>200.0</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="83">
@@ -12819,37 +12819,37 @@
         <v>306</v>
       </c>
       <c r="AK83" t="n">
-        <v>89.63</v>
+        <v>89.632</v>
       </c>
       <c r="AL83" t="n">
-        <v>571800.0</v>
-      </c>
-      <c r="AM83" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN83" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO83" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.01</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AP83" t="n">
-        <v>12950.0</v>
+        <v>0.01</v>
       </c>
       <c r="AQ83" t="n">
-        <v>2734.62</v>
+        <v>-0.2</v>
       </c>
       <c r="AR83" t="n">
-        <v>1300.0</v>
+        <v>-0.47</v>
       </c>
       <c r="AS83" t="n">
-        <v>1414.29</v>
+        <v>-0.14</v>
       </c>
       <c r="AT83" t="n">
-        <v>4046.15</v>
-      </c>
-      <c r="AU83" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.14</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="84">
@@ -12965,34 +12965,34 @@
         <v>86.04</v>
       </c>
       <c r="AL84" t="n">
-        <v>213053.33</v>
+        <v>-0.0</v>
       </c>
       <c r="AM84" t="n">
-        <v>368100.0</v>
+        <v>0.02</v>
       </c>
       <c r="AN84" t="n">
-        <v>567250.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO84" t="n">
-        <v>412787.5</v>
+        <v>-0.0</v>
       </c>
       <c r="AP84" t="n">
-        <v>7620.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1836.19</v>
+        <v>-0.08</v>
       </c>
       <c r="AR84" t="n">
-        <v>743.2</v>
+        <v>0.15</v>
       </c>
       <c r="AS84" t="n">
-        <v>2141.67</v>
+        <v>-0.14</v>
       </c>
       <c r="AT84" t="n">
-        <v>4210.71</v>
+        <v>-0.13</v>
       </c>
       <c r="AU84" t="n">
-        <v>1100.0</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="85">
@@ -13105,37 +13105,37 @@
         <v>306</v>
       </c>
       <c r="AK85" t="n">
-        <v>87.88</v>
+        <v>87.881</v>
       </c>
       <c r="AL85" t="n">
-        <v>302050.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AM85" t="n">
-        <v>184100.0</v>
+        <v>0.03</v>
       </c>
       <c r="AN85" t="n">
-        <v>291300.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO85" t="n">
-        <v>563550.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP85" t="n">
-        <v>25700.0</v>
+        <v>-0.04</v>
       </c>
       <c r="AQ85" t="n">
-        <v>2225.58</v>
+        <v>-0.24</v>
       </c>
       <c r="AR85" t="n">
-        <v>477.27</v>
+        <v>-0.02</v>
       </c>
       <c r="AS85" t="n">
-        <v>2400.0</v>
+        <v>-0.19</v>
       </c>
       <c r="AT85" t="n">
-        <v>5150.0</v>
+        <v>-0.28</v>
       </c>
       <c r="AU85" t="n">
-        <v>550.0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="86">
@@ -13534,37 +13534,37 @@
         <v>306</v>
       </c>
       <c r="AK88" t="n">
-        <v>86.92</v>
+        <v>86.921</v>
       </c>
       <c r="AL88" t="n">
-        <v>419500.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM88" t="n">
-        <v>203166.67</v>
-      </c>
-      <c r="AN88" t="e">
-        <v>#DIV/0!</v>
+        <v>0.04</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AO88" t="n">
-        <v>2337300.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AP88" t="n">
-        <v>32950.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1494.79</v>
+        <v>-0.17</v>
       </c>
       <c r="AR88" t="n">
-        <v>470.37</v>
+        <v>-0.18</v>
       </c>
       <c r="AS88" t="n">
-        <v>911.11</v>
+        <v>-0.4</v>
       </c>
       <c r="AT88" t="n">
-        <v>3475.76</v>
+        <v>-0.19</v>
       </c>
       <c r="AU88" t="n">
-        <v>292.59</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="89">
@@ -13677,37 +13677,37 @@
         <v>306</v>
       </c>
       <c r="AK89" t="n">
-        <v>84.45</v>
+        <v>84.446</v>
       </c>
       <c r="AL89" t="n">
-        <v>859900.0</v>
+        <v>0.01</v>
       </c>
       <c r="AM89" t="n">
-        <v>240050.0</v>
+        <v>0.05</v>
       </c>
       <c r="AN89" t="n">
-        <v>140450.0</v>
-      </c>
-      <c r="AO89" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP89" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.01</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>0.0</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1005.3</v>
+        <v>-0.37</v>
       </c>
       <c r="AR89" t="n">
-        <v>186.49</v>
+        <v>-0.21</v>
       </c>
       <c r="AS89" t="n">
-        <v>568.75</v>
+        <v>-0.29</v>
       </c>
       <c r="AT89" t="n">
-        <v>1655.88</v>
+        <v>-0.39</v>
       </c>
       <c r="AU89" t="n">
-        <v>372.73</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="90">
@@ -13820,37 +13820,37 @@
         <v>306</v>
       </c>
       <c r="AK90" t="n">
-        <v>88.86</v>
+        <v>88.865</v>
       </c>
       <c r="AL90" t="n">
-        <v>212850.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AM90" t="n">
-        <v>31000.0</v>
-      </c>
-      <c r="AN90" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO90" t="e">
-        <v>#DIV/0!</v>
+        <v>0.04</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AP90" t="n">
-        <v>22000.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AQ90" t="n">
-        <v>2214.29</v>
+        <v>-0.25</v>
       </c>
       <c r="AR90" t="n">
-        <v>460.0</v>
+        <v>-0.15</v>
       </c>
       <c r="AS90" t="n">
-        <v>880.0</v>
+        <v>-0.21</v>
       </c>
       <c r="AT90" t="n">
-        <v>4344.44</v>
+        <v>-0.26</v>
       </c>
       <c r="AU90" t="n">
-        <v>350.0</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="91">
@@ -13963,37 +13963,37 @@
         <v>306</v>
       </c>
       <c r="AK91" t="n">
-        <v>88.53</v>
+        <v>88.531</v>
       </c>
       <c r="AL91" t="n">
-        <v>648033.33</v>
-      </c>
-      <c r="AM91" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.0</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>0.05</v>
       </c>
       <c r="AN91" t="n">
-        <v>151700.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AO91" t="n">
-        <v>1419400.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AP91" t="n">
-        <v>65400.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1574.14</v>
+        <v>-0.02</v>
       </c>
       <c r="AR91" t="n">
-        <v>421.43</v>
+        <v>0.0</v>
       </c>
       <c r="AS91" t="n">
-        <v>677.78</v>
+        <v>-0.2</v>
       </c>
       <c r="AT91" t="n">
-        <v>4211.11</v>
+        <v>-0.04</v>
       </c>
       <c r="AU91" t="n">
-        <v>205.88</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="92">
@@ -14106,37 +14106,37 @@
         <v>306</v>
       </c>
       <c r="AK92" t="n">
-        <v>80.29</v>
+        <v>80.291</v>
       </c>
       <c r="AL92" t="n">
-        <v>511975.0</v>
+        <v>0.0</v>
       </c>
       <c r="AM92" t="n">
-        <v>179900.0</v>
-      </c>
-      <c r="AN92" t="e">
-        <v>#DIV/0!</v>
+        <v>0.05</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>-0.01</v>
       </c>
       <c r="AO92" t="n">
-        <v>717600.0</v>
-      </c>
-      <c r="AP92" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.0</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>0.0</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1092.86</v>
+        <v>-0.27</v>
       </c>
       <c r="AR92" t="n">
-        <v>333.33</v>
+        <v>-0.08</v>
       </c>
       <c r="AS92" t="n">
-        <v>957.14</v>
+        <v>-0.21</v>
       </c>
       <c r="AT92" t="n">
-        <v>1690.7</v>
+        <v>-0.29</v>
       </c>
       <c r="AU92" t="n">
-        <v>485.71</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="93">
@@ -14249,37 +14249,37 @@
         <v>306</v>
       </c>
       <c r="AK93" t="n">
-        <v>83.84</v>
+        <v>83.843</v>
       </c>
       <c r="AL93" t="n">
-        <v>337500.0</v>
+        <v>0.01</v>
       </c>
       <c r="AM93" t="n">
-        <v>139700.0</v>
-      </c>
-      <c r="AN93" t="e">
-        <v>#DIV/0!</v>
+        <v>0.05</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>-0.02</v>
       </c>
       <c r="AO93" t="n">
-        <v>490662.5</v>
+        <v>-0.0</v>
       </c>
       <c r="AP93" t="n">
-        <v>176200.0</v>
+        <v>0.01</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1504.37</v>
+        <v>-0.19</v>
       </c>
       <c r="AR93" t="n">
-        <v>478.79</v>
+        <v>0.02</v>
       </c>
       <c r="AS93" t="n">
-        <v>666.67</v>
+        <v>0.06</v>
       </c>
       <c r="AT93" t="n">
-        <v>3091.3</v>
+        <v>-0.22</v>
       </c>
       <c r="AU93" t="n">
-        <v>488.89</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="94">
@@ -14395,34 +14395,34 @@
         <v>88.08</v>
       </c>
       <c r="AL94" t="n">
-        <v>442033.33</v>
-      </c>
-      <c r="AM94" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN94" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.0</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>0.0</v>
       </c>
       <c r="AO94" t="n">
-        <v>346200.0</v>
-      </c>
-      <c r="AP94" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.01</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>0.02</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1282.69</v>
+        <v>0.02</v>
       </c>
       <c r="AR94" t="n">
-        <v>200.0</v>
+        <v>-0.18</v>
       </c>
       <c r="AS94" t="n">
-        <v>875.0</v>
+        <v>-0.09</v>
       </c>
       <c r="AT94" t="n">
-        <v>1815.15</v>
+        <v>0.05</v>
       </c>
       <c r="AU94" t="n">
-        <v>275.0</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="95">
@@ -14535,37 +14535,37 @@
         <v>306</v>
       </c>
       <c r="AK95" t="n">
-        <v>86.59</v>
+        <v>86.595</v>
       </c>
       <c r="AL95" t="n">
-        <v>197873.33</v>
+        <v>0.01</v>
       </c>
       <c r="AM95" t="n">
-        <v>190866.67</v>
+        <v>0.06</v>
       </c>
       <c r="AN95" t="n">
-        <v>50700.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO95" t="n">
-        <v>519100.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AP95" t="n">
-        <v>21866.67</v>
+        <v>0.01</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1834.67</v>
+        <v>-0.27</v>
       </c>
       <c r="AR95" t="n">
-        <v>465.52</v>
+        <v>0.15</v>
       </c>
       <c r="AS95" t="n">
-        <v>480.0</v>
+        <v>-0.15</v>
       </c>
       <c r="AT95" t="n">
-        <v>4524.0</v>
+        <v>-0.3</v>
       </c>
       <c r="AU95" t="n">
-        <v>1400.0</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="96">
@@ -14678,37 +14678,37 @@
         <v>306</v>
       </c>
       <c r="AK96" t="n">
-        <v>79.0</v>
+        <v>78.999</v>
       </c>
       <c r="AL96" t="n">
-        <v>66847.15</v>
+        <v>0.02</v>
       </c>
       <c r="AM96" t="n">
-        <v>103188.24</v>
+        <v>0.07</v>
       </c>
       <c r="AN96" t="n">
-        <v>68770.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AO96" t="n">
-        <v>57823.4</v>
+        <v>0.01</v>
       </c>
       <c r="AP96" t="n">
-        <v>172450.0</v>
+        <v>0.01</v>
       </c>
       <c r="AQ96" t="n">
-        <v>653.78</v>
+        <v>-0.12</v>
       </c>
       <c r="AR96" t="n">
-        <v>265.56</v>
+        <v>-0.04</v>
       </c>
       <c r="AS96" t="n">
-        <v>608.11</v>
+        <v>-0.34</v>
       </c>
       <c r="AT96" t="n">
-        <v>814.86</v>
+        <v>-0.11</v>
       </c>
       <c r="AU96" t="n">
-        <v>495.65</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="97">
@@ -14821,37 +14821,37 @@
         <v>306</v>
       </c>
       <c r="AK97" t="n">
-        <v>84.93</v>
+        <v>84.926</v>
       </c>
       <c r="AL97" t="n">
-        <v>324007.14</v>
+        <v>0.01</v>
       </c>
       <c r="AM97" t="n">
-        <v>199166.67</v>
+        <v>0.05</v>
       </c>
       <c r="AN97" t="n">
-        <v>194550.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AO97" t="n">
-        <v>491571.43</v>
+        <v>0.0</v>
       </c>
       <c r="AP97" t="n">
-        <v>54250.0</v>
+        <v>0.03</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1777.32</v>
+        <v>-0.28</v>
       </c>
       <c r="AR97" t="n">
-        <v>419.05</v>
+        <v>-0.18</v>
       </c>
       <c r="AS97" t="n">
-        <v>257.5</v>
+        <v>-0.15</v>
       </c>
       <c r="AT97" t="n">
-        <v>4450.0</v>
+        <v>-0.3</v>
       </c>
       <c r="AU97" t="n">
-        <v>1000.0</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="98">
@@ -14967,34 +14967,34 @@
         <v>83.44</v>
       </c>
       <c r="AL98" t="n">
-        <v>311580.0</v>
+        <v>0.02</v>
       </c>
       <c r="AM98" t="n">
-        <v>605100.0</v>
+        <v>0.07</v>
       </c>
       <c r="AN98" t="n">
-        <v>169100.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AO98" t="n">
-        <v>411400.0</v>
+        <v>0.01</v>
       </c>
       <c r="AP98" t="n">
-        <v>57750.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1102.59</v>
+        <v>-0.25</v>
       </c>
       <c r="AR98" t="n">
-        <v>461.9</v>
+        <v>-0.09</v>
       </c>
       <c r="AS98" t="n">
-        <v>681.25</v>
+        <v>-0.13</v>
       </c>
       <c r="AT98" t="n">
-        <v>1427.03</v>
+        <v>-0.28</v>
       </c>
       <c r="AU98" t="n">
-        <v>340.0</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="99">
@@ -15107,37 +15107,37 @@
         <v>306</v>
       </c>
       <c r="AK99" t="n">
-        <v>83.48</v>
+        <v>83.477</v>
       </c>
       <c r="AL99" t="n">
-        <v>232741.18</v>
+        <v>0.01</v>
       </c>
       <c r="AM99" t="n">
-        <v>102066.67</v>
+        <v>0.05</v>
       </c>
       <c r="AN99" t="n">
-        <v>91050.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO99" t="n">
-        <v>2809600.0</v>
+        <v>0.01</v>
       </c>
       <c r="AP99" t="n">
-        <v>28400.0</v>
+        <v>0.01</v>
       </c>
       <c r="AQ99" t="n">
-        <v>985.8</v>
+        <v>-0.25</v>
       </c>
       <c r="AR99" t="n">
-        <v>415.91</v>
+        <v>-0.35</v>
       </c>
       <c r="AS99" t="n">
-        <v>856.25</v>
+        <v>-0.2</v>
       </c>
       <c r="AT99" t="n">
-        <v>1342.57</v>
+        <v>-0.26</v>
       </c>
       <c r="AU99" t="n">
-        <v>393.33</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="100">
@@ -15250,37 +15250,37 @@
         <v>306</v>
       </c>
       <c r="AK100" t="n">
-        <v>77.84</v>
+        <v>77.845</v>
       </c>
       <c r="AL100" t="n">
-        <v>179547.06</v>
+        <v>0.02</v>
       </c>
       <c r="AM100" t="n">
-        <v>162650.0</v>
-      </c>
-      <c r="AN100" t="e">
-        <v>#DIV/0!</v>
+        <v>0.06</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>0.0</v>
       </c>
       <c r="AO100" t="n">
-        <v>169933.33</v>
+        <v>0.01</v>
       </c>
       <c r="AP100" t="n">
-        <v>145300.0</v>
+        <v>0.01</v>
       </c>
       <c r="AQ100" t="n">
-        <v>748.19</v>
+        <v>0.02</v>
       </c>
       <c r="AR100" t="n">
-        <v>363.33</v>
+        <v>0.31</v>
       </c>
       <c r="AS100" t="n">
-        <v>550.0</v>
+        <v>0.02</v>
       </c>
       <c r="AT100" t="n">
-        <v>1037.38</v>
+        <v>-0.03</v>
       </c>
       <c r="AU100" t="n">
-        <v>280.0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="101">
@@ -15393,37 +15393,37 @@
         <v>306</v>
       </c>
       <c r="AK101" t="n">
-        <v>82.89</v>
+        <v>82.891</v>
       </c>
       <c r="AL101" t="n">
-        <v>241131.58</v>
+        <v>0.01</v>
       </c>
       <c r="AM101" t="n">
-        <v>164350.0</v>
+        <v>0.04</v>
       </c>
       <c r="AN101" t="n">
-        <v>120160.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO101" t="n">
-        <v>477500.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AP101" t="n">
-        <v>64800.0</v>
+        <v>0.03</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1667.79</v>
+        <v>-0.29</v>
       </c>
       <c r="AR101" t="n">
-        <v>546.34</v>
+        <v>-0.67</v>
       </c>
       <c r="AS101" t="n">
-        <v>1191.11</v>
+        <v>0.32</v>
       </c>
       <c r="AT101" t="n">
-        <v>3546.81</v>
+        <v>-0.28</v>
       </c>
       <c r="AU101" t="n">
-        <v>362.5</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="102">
@@ -15536,37 +15536,37 @@
         <v>306</v>
       </c>
       <c r="AK102" t="n">
-        <v>77.65</v>
+        <v>77.649</v>
       </c>
       <c r="AL102" t="n">
-        <v>103713.51</v>
+        <v>0.02</v>
       </c>
       <c r="AM102" t="n">
-        <v>100106.67</v>
+        <v>0.06</v>
       </c>
       <c r="AN102" t="n">
-        <v>72570.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AO102" t="n">
-        <v>116944.19</v>
+        <v>0.01</v>
       </c>
       <c r="AP102" t="n">
-        <v>69816.67</v>
+        <v>0.01</v>
       </c>
       <c r="AQ102" t="n">
-        <v>725.35</v>
+        <v>-0.08</v>
       </c>
       <c r="AR102" t="n">
-        <v>373.33</v>
+        <v>-0.06</v>
       </c>
       <c r="AS102" t="n">
-        <v>557.5</v>
+        <v>-0.24</v>
       </c>
       <c r="AT102" t="n">
-        <v>906.31</v>
+        <v>-0.07</v>
       </c>
       <c r="AU102" t="n">
-        <v>283.87</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="103">
@@ -15679,37 +15679,37 @@
         <v>306</v>
       </c>
       <c r="AK103" t="n">
-        <v>88.93</v>
+        <v>88.929</v>
       </c>
       <c r="AL103" t="n">
-        <v>297388.89</v>
+        <v>0.01</v>
       </c>
       <c r="AM103" t="n">
-        <v>271800.0</v>
+        <v>0.05</v>
       </c>
       <c r="AN103" t="n">
-        <v>126800.0</v>
+        <v>0.04</v>
       </c>
       <c r="AO103" t="n">
-        <v>655333.33</v>
+        <v>0.0</v>
       </c>
       <c r="AP103" t="n">
-        <v>29150.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1345.88</v>
+        <v>-0.13</v>
       </c>
       <c r="AR103" t="n">
-        <v>205.26</v>
+        <v>-0.28</v>
       </c>
       <c r="AS103" t="n">
-        <v>657.14</v>
+        <v>-0.09</v>
       </c>
       <c r="AT103" t="n">
-        <v>2533.33</v>
+        <v>-0.15</v>
       </c>
       <c r="AU103" t="n">
-        <v>192.31</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="104">
@@ -15822,37 +15822,37 @@
         <v>306</v>
       </c>
       <c r="AK104" t="n">
-        <v>83.06</v>
+        <v>83.064</v>
       </c>
       <c r="AL104" t="n">
-        <v>345447.06</v>
+        <v>0.01</v>
       </c>
       <c r="AM104" t="n">
-        <v>236040.0</v>
+        <v>0.05</v>
       </c>
       <c r="AN104" t="n">
-        <v>388200.0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO104" t="n">
-        <v>371530.0</v>
-      </c>
-      <c r="AP104" t="e">
-        <v>#DIV/0!</v>
+        <v>-0.0</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>0.01</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1061.94</v>
+        <v>-0.05</v>
       </c>
       <c r="AR104" t="n">
-        <v>358.75</v>
+        <v>1.38</v>
       </c>
       <c r="AS104" t="n">
-        <v>987.5</v>
+        <v>-0.25</v>
       </c>
       <c r="AT104" t="n">
-        <v>2750.0</v>
+        <v>-0.19</v>
       </c>
       <c r="AU104" t="n">
-        <v>458.33</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="105">
@@ -15965,37 +15965,37 @@
         <v>306</v>
       </c>
       <c r="AK105" t="n">
-        <v>86.49</v>
+        <v>86.495</v>
       </c>
       <c r="AL105" t="n">
-        <v>281165.22</v>
+        <v>0.01</v>
       </c>
       <c r="AM105" t="n">
-        <v>174385.71</v>
+        <v>0.06</v>
       </c>
       <c r="AN105" t="n">
-        <v>232750.0</v>
+        <v>-0.03</v>
       </c>
       <c r="AO105" t="n">
-        <v>380333.33</v>
+        <v>-0.0</v>
       </c>
       <c r="AP105" t="n">
-        <v>108300.0</v>
+        <v>0.02</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1761.61</v>
+        <v>-0.17</v>
       </c>
       <c r="AR105" t="n">
-        <v>517.39</v>
+        <v>-0.23</v>
       </c>
       <c r="AS105" t="n">
-        <v>696.88</v>
+        <v>-0.48</v>
       </c>
       <c r="AT105" t="n">
-        <v>2993.14</v>
+        <v>-0.12</v>
       </c>
       <c r="AU105" t="n">
-        <v>1050.0</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="106">
@@ -16108,37 +16108,37 @@
         <v>306</v>
       </c>
       <c r="AK106" t="n">
-        <v>89.93</v>
+        <v>89.929</v>
       </c>
       <c r="AL106" t="n">
-        <v>2328800.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AM106" t="n">
-        <v>492000.0</v>
-      </c>
-      <c r="AN106" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO106" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP106" t="e">
-        <v>#DIV/0!</v>
+        <v>0.02</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>0.03</v>
       </c>
       <c r="AQ106" t="n">
-        <v>3796.97</v>
+        <v>-0.12</v>
       </c>
       <c r="AR106" t="n">
-        <v>1346.67</v>
+        <v>0.01</v>
       </c>
       <c r="AS106" t="n">
-        <v>2257.14</v>
+        <v>-0.22</v>
       </c>
       <c r="AT106" t="n">
-        <v>8730.0</v>
+        <v>-0.12</v>
       </c>
       <c r="AU106" t="n">
-        <v>2000.0</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="107">
@@ -16251,37 +16251,37 @@
         <v>306</v>
       </c>
       <c r="AK107" t="n">
-        <v>74.47</v>
+        <v>74.467</v>
       </c>
       <c r="AL107" t="n">
-        <v>259738.89</v>
+        <v>0.02</v>
       </c>
       <c r="AM107" t="n">
-        <v>154366.67</v>
+        <v>0.06</v>
       </c>
       <c r="AN107" t="n">
-        <v>422500.0</v>
+        <v>-0.01</v>
       </c>
       <c r="AO107" t="n">
-        <v>441100.0</v>
+        <v>0.01</v>
       </c>
       <c r="AP107" t="n">
-        <v>59725.0</v>
+        <v>0.01</v>
       </c>
       <c r="AQ107" t="n">
-        <v>768.78</v>
+        <v>-0.22</v>
       </c>
       <c r="AR107" t="n">
-        <v>286.44</v>
+        <v>-0.04</v>
       </c>
       <c r="AS107" t="n">
-        <v>570.83</v>
+        <v>-0.23</v>
       </c>
       <c r="AT107" t="n">
-        <v>1035.21</v>
+        <v>-0.24</v>
       </c>
       <c r="AU107" t="n">
-        <v>383.33</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="108">
@@ -16394,37 +16394,37 @@
         <v>306</v>
       </c>
       <c r="AK108" t="n">
-        <v>84.21</v>
-      </c>
-      <c r="AL108" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM108" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN108" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO108" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP108" t="e">
-        <v>#DIV/0!</v>
+        <v>84.212</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>0.0</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1625.0</v>
+        <v>0.01</v>
       </c>
       <c r="AR108" t="n">
-        <v>558.33</v>
+        <v>-0.08</v>
       </c>
       <c r="AS108" t="n">
-        <v>580.0</v>
+        <v>-0.44</v>
       </c>
       <c r="AT108" t="n">
-        <v>3933.33</v>
+        <v>0.14</v>
       </c>
       <c r="AU108" t="n">
-        <v>250.0</v>
+        <v>-0.36</v>
       </c>
     </row>
   </sheetData>
